--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="10575" tabRatio="555"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="820">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -4333,6 +4333,167 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>语言</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>开发人员专用设置</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Exvision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>专用设置</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始教程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">拟增益 (1-32): </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>教程需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>连接网络。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>教程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>结束!</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>下次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>启动ZKOO时再次显示教程。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请将ZKOO安装在屏幕的中央附近。
+请面对相机摄像头，坐在离ZKOO大约1.5到2米以外的地方。
+如需调整相机的角度，请参照安装指南。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PleaseStartHostApplicationsAfterZkooIsConnected</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>ZKOOをPCに接続してから
+アプリケーションを起動してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please connect ZKOO with PC 
+before starting ZKOO application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请将ZKOO连接到电脑，
+再启动ZKOO应用程序。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../Windows/Projects/Egs/EgsDeviceControlCore/Properties</t>
+  </si>
+  <si>
+    <t>../Windows/Projects/Egs/ZkooTutorial/Properties</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔検出を行うデバイス</t>
+    <rPh sb="0" eb="3">
+      <t>カオケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>选择处理面部检测的设备</t>
+  </si>
+  <si>
+    <t>Device to Detect Faces</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>by Host Application (Higher Accuracy)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <t>由</t>
     </r>
     <r>
@@ -4346,140 +4507,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>语言</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>开发人员专用设置</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Exvision</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>专用设置</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始教程</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">拟增益 (1-32): </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>教程需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>连接网络。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>教程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>结束!</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>下次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>启动ZKOO时再次显示教程。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请将ZKOO安装在屏幕的中央附近。
-请面对相机摄像头，坐在离ZKOO大约1.5到2米以外的地方。
-如需调整相机的角度，请参照安装指南。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PleaseStartHostApplicationsAfterZkooIsConnected</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>ZKOOをPCに接続してから
-アプリケーションを起動してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please connect ZKOO with PC 
-before starting ZKOO application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请将ZKOO连接到电脑，
-再启动ZKOO应用程序。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>../Windows/Projects/Egs/EgsDeviceControlCore/Properties</t>
-  </si>
-  <si>
-    <t>../Windows/Projects/Egs/ZkooTutorial/Properties</t>
+    <t>过程在设备</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホストアプリケーション (高精度)</t>
+    <rPh sb="13" eb="16">
+      <t>コウセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>进程在主机上 (更高的精度)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FaceDetectionIsProcessedByDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EgsDeviceFaceDetectionOnHost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Longer Distance Needs More CPU Usage)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by Device</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(長い距離ほど計算負荷が高くなります)</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LongerDistanceNeedsMoreCpuUsage</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4557,12 +4639,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4577,7 +4665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4616,6 +4704,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4931,12 +5031,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5007,7 +5107,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -5035,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -5063,7 +5163,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -5091,7 +5191,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -5119,7 +5219,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -5147,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -5175,7 +5275,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -5203,7 +5303,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -5231,7 +5331,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -5259,7 +5359,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -5287,7 +5387,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -5315,7 +5415,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -5343,7 +5443,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -5371,7 +5471,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -5399,7 +5499,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -5427,7 +5527,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -5455,7 +5555,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
@@ -5483,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -5511,7 +5611,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -5539,7 +5639,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -5567,7 +5667,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -5595,7 +5695,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -5623,7 +5723,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -5651,7 +5751,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -5679,7 +5779,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -5707,7 +5807,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -5735,7 +5835,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -5766,7 +5866,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -5800,7 +5900,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -5834,7 +5934,7 @@
         <v>112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -5868,7 +5968,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -5902,7 +6002,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -5936,7 +6036,7 @@
         <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -5970,7 +6070,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -6004,7 +6104,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -6038,7 +6138,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -6072,7 +6172,7 @@
         <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -6106,7 +6206,7 @@
         <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -6140,7 +6240,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -6174,7 +6274,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -6208,7 +6308,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -6242,7 +6342,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -6276,7 +6376,7 @@
         <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -6310,7 +6410,7 @@
         <v>112</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -6319,7 +6419,7 @@
         <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6327,13 +6427,13 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="N45" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
@@ -6344,7 +6444,7 @@
         <v>112</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -6378,7 +6478,7 @@
         <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -6412,7 +6512,7 @@
         <v>112</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -6446,7 +6546,7 @@
         <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -6480,7 +6580,7 @@
         <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -6514,7 +6614,7 @@
         <v>112</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
@@ -6548,7 +6648,7 @@
         <v>112</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -6582,7 +6682,7 @@
         <v>112</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -6616,7 +6716,7 @@
         <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -6650,7 +6750,7 @@
         <v>112</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -6684,7 +6784,7 @@
         <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -6718,7 +6818,7 @@
         <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -6752,7 +6852,7 @@
         <v>112</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -6786,7 +6886,7 @@
         <v>112</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -6820,7 +6920,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
@@ -6854,7 +6954,7 @@
         <v>112</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -6888,7 +6988,7 @@
         <v>112</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
@@ -6922,7 +7022,7 @@
         <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -6956,7 +7056,7 @@
         <v>112</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
@@ -6990,7 +7090,7 @@
         <v>112</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
@@ -7024,7 +7124,7 @@
         <v>112</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
@@ -7058,7 +7158,7 @@
         <v>112</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
@@ -7092,7 +7192,7 @@
         <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>15</v>
@@ -7126,7 +7226,7 @@
         <v>112</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>15</v>
@@ -7160,7 +7260,7 @@
         <v>112</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>15</v>
@@ -7194,7 +7294,7 @@
         <v>112</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>15</v>
@@ -7228,7 +7328,7 @@
         <v>112</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>15</v>
@@ -7262,7 +7362,7 @@
         <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>15</v>
@@ -7296,7 +7396,7 @@
         <v>112</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
@@ -7330,7 +7430,7 @@
         <v>112</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>15</v>
@@ -7364,7 +7464,7 @@
         <v>112</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>15</v>
@@ -7398,7 +7498,7 @@
         <v>112</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>15</v>
@@ -7432,7 +7532,7 @@
         <v>112</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
@@ -7466,7 +7566,7 @@
         <v>112</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
@@ -7500,7 +7600,7 @@
         <v>112</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
@@ -7534,7 +7634,7 @@
         <v>112</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>15</v>
@@ -7568,7 +7668,7 @@
         <v>112</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>15</v>
@@ -7602,7 +7702,7 @@
         <v>112</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>15</v>
@@ -7636,7 +7736,7 @@
         <v>112</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
@@ -7673,7 +7773,7 @@
         <v>112</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>15</v>
@@ -7710,7 +7810,7 @@
         <v>112</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>15</v>
@@ -7747,7 +7847,7 @@
         <v>112</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>15</v>
@@ -7784,7 +7884,7 @@
         <v>112</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>15</v>
@@ -7821,7 +7921,7 @@
         <v>112</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>15</v>
@@ -7858,7 +7958,7 @@
         <v>112</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>15</v>
@@ -7873,7 +7973,7 @@
         <v>226</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" ref="J90:J129" si="5">$F90&amp;IF(ISBLANK($G90),"","_"&amp;$G90)&amp;IF(ISBLANK($H90),"",$H90)&amp;IF(ISBLANK($I90),"","_"&amp;$I90)</f>
+        <f t="shared" ref="J90:J133" si="5">$F90&amp;IF(ISBLANK($G90),"","_"&amp;$G90)&amp;IF(ISBLANK($H90),"",$H90)&amp;IF(ISBLANK($I90),"","_"&amp;$I90)</f>
         <v>CameraViewWindowModel_CanDragMove_Description</v>
       </c>
       <c r="K90" s="2"/>
@@ -7895,7 +7995,7 @@
         <v>112</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>15</v>
@@ -7935,7 +8035,7 @@
         <v>112</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>15</v>
@@ -7975,7 +8075,7 @@
         <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>15</v>
@@ -8012,7 +8112,7 @@
         <v>112</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>15</v>
@@ -8049,7 +8149,7 @@
         <v>112</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
@@ -8086,7 +8186,7 @@
         <v>112</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>15</v>
@@ -8123,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>15</v>
@@ -8157,7 +8257,7 @@
         <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
@@ -8191,7 +8291,7 @@
         <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>15</v>
@@ -8225,7 +8325,7 @@
         <v>112</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
@@ -8259,7 +8359,7 @@
         <v>112</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>15</v>
@@ -8293,7 +8393,7 @@
         <v>112</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>15</v>
@@ -8327,7 +8427,7 @@
         <v>112</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>15</v>
@@ -8361,7 +8461,7 @@
         <v>112</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>15</v>
@@ -8395,7 +8495,7 @@
         <v>112</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>15</v>
@@ -8429,7 +8529,7 @@
         <v>112</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>15</v>
@@ -8463,7 +8563,7 @@
         <v>112</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>15</v>
@@ -8497,7 +8597,7 @@
         <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>15</v>
@@ -8531,7 +8631,7 @@
         <v>112</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>15</v>
@@ -8565,7 +8665,7 @@
         <v>112</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>422</v>
@@ -8580,7 +8680,7 @@
         <v>226</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f>$F110&amp;IF(ISBLANK($G110),"","_"&amp;$G110)&amp;IF(ISBLANK($H110),"",$H110)&amp;IF(ISBLANK($I110),"","_"&amp;$I110)</f>
+        <f t="shared" ref="J110:J116" si="6">$F110&amp;IF(ISBLANK($G110),"","_"&amp;$G110)&amp;IF(ISBLANK($H110),"",$H110)&amp;IF(ISBLANK($I110),"","_"&amp;$I110)</f>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_Type_Description</v>
       </c>
       <c r="K110" s="2"/>
@@ -8602,7 +8702,7 @@
         <v>112</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>422</v>
@@ -8617,7 +8717,7 @@
         <v>226</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f>$F111&amp;IF(ISBLANK($G111),"","_"&amp;$G111)&amp;IF(ISBLANK($H111),"",$H111)&amp;IF(ISBLANK($I111),"","_"&amp;$I111)</f>
+        <f t="shared" si="6"/>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_ByHostApplication_Description</v>
       </c>
       <c r="K111" s="2"/>
@@ -8639,7 +8739,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>422</v>
@@ -8654,7 +8754,7 @@
         <v>226</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f>$F112&amp;IF(ISBLANK($G112),"","_"&amp;$G112)&amp;IF(ISBLANK($H112),"",$H112)&amp;IF(ISBLANK($I112),"","_"&amp;$I112)</f>
+        <f t="shared" si="6"/>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_ByDevice_Description</v>
       </c>
       <c r="K112" s="2"/>
@@ -8665,832 +8765,829 @@
         <v>435</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>422</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>424</v>
+        <v>804</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J113" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>FaceDetectionIsProcessedByDetail_Type_Description</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="N113" s="15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>FaceDetectionIsProcessedByDetail_ByHostApplication_Description</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="M114" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>FaceDetectionIsProcessedByDetail_ByDevice_Description</v>
+      </c>
+      <c r="K115" s="2"/>
+      <c r="L115" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="M115" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="N115" s="17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="M116" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="N116" s="16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J117" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Type_Description</v>
       </c>
-      <c r="K113" s="2"/>
-      <c r="L113" s="9" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="M113" s="9" t="s">
+      <c r="M117" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="N113" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A114" s="2" t="s">
+      <c r="N117" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J114" s="1" t="str">
+      <c r="J118" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_UseOSCulture_Description</v>
       </c>
-      <c r="K114" s="2"/>
-      <c r="L114" s="9" t="s">
+      <c r="K118" s="2"/>
+      <c r="L118" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M114" s="9" t="s">
+      <c r="M118" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N118" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J115" s="1" t="str">
+      <c r="J119" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_English_Description</v>
       </c>
-      <c r="K115" s="2"/>
-      <c r="L115" s="9" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="M115" s="9" t="s">
+      <c r="M119" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="N115" s="12" t="s">
+      <c r="N119" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J116" s="1" t="str">
+      <c r="J120" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Japanese_Description</v>
       </c>
-      <c r="K116" s="2"/>
-      <c r="L116" s="9" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="M116" s="9" t="s">
+      <c r="M120" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="N116" s="12" t="s">
+      <c r="N120" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J117" s="1" t="str">
+      <c r="J121" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Chinese_Description</v>
       </c>
-      <c r="K117" s="2"/>
-      <c r="L117" s="11" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M121" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N121" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J118" s="1" t="str">
+      <c r="J122" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_Type_Description</v>
       </c>
-      <c r="K118" s="2"/>
-      <c r="L118" s="9" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="M118" s="9" t="s">
+      <c r="M122" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N122" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J119" s="1" t="str">
+      <c r="J123" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_None_Description</v>
       </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="9" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="M119" s="9" t="s">
+      <c r="M123" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N123" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A120" s="2" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J120" s="1" t="str">
+      <c r="J124" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_FirstFoundHand_Description</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="9" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="M120" s="9" t="s">
+      <c r="M124" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N124" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="B125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J121" s="1" t="str">
+      <c r="J125" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_RightHand_Description</v>
       </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="9" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="M121" s="9" t="s">
+      <c r="M125" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="N121" s="12" t="s">
+      <c r="N125" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A122" s="2" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J122" s="1" t="str">
+      <c r="J126" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_LeftHand_Description</v>
       </c>
-      <c r="K122" s="2"/>
-      <c r="L122" s="9" t="s">
+      <c r="K126" s="2"/>
+      <c r="L126" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M122" s="9" t="s">
+      <c r="M126" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="N122" s="12" t="s">
+      <c r="N126" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J123" s="1" t="str">
+      <c r="J127" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_Type_Description</v>
       </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="9" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="M123" s="9" t="s">
+      <c r="M127" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N127" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A124" s="2" t="s">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J124" s="1" t="str">
+      <c r="J128" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByHidReportUpdatedEvent_Description</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="9" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="M124" s="9" t="s">
+      <c r="M128" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N128" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J125" s="1" t="str">
+      <c r="J129" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByTimer60Fps_Description</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="9" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="M125" s="9" t="s">
+      <c r="M129" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N129" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A126" s="2" t="s">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="B130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J126" s="1" t="str">
+      <c r="J130" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByTimer30Fps_Description</v>
       </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="9" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="M126" s="9" t="s">
+      <c r="M130" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N130" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A127" s="2" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J127" s="1" t="str">
+      <c r="J131" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_Type_Description</v>
       </c>
-      <c r="K127" s="2"/>
-      <c r="L127" s="9" t="s">
+      <c r="K131" s="2"/>
+      <c r="L131" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="M127" s="9" t="s">
+      <c r="M131" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N131" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A128" s="2" t="s">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J128" s="1" t="str">
+      <c r="J132" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_UseUsersControlMethods_Description</v>
       </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="9" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="M128" s="9" t="s">
+      <c r="M132" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N132" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A129" s="2" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J129" s="1" t="str">
+      <c r="J133" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepNormal_Description</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="M129" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="N129" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A130" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J130" s="1" t="str">
-        <f t="shared" ref="J130:J162" si="6">$F130&amp;IF(ISBLANK($G130),"","_"&amp;$G130)&amp;IF(ISBLANK($H130),"",$H130)&amp;IF(ISBLANK($I130),"","_"&amp;$I130)</f>
-        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepMinimized_Description</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="M130" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="N130" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J131" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_Type_Description</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="M131" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="N131" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A132" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J132" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ManualOnOff_Description</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="M132" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="N132" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J133" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandTrackingStarts_Description</v>
-      </c>
       <c r="K133" s="2"/>
       <c r="L133" s="9" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="N133" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>422</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_Description</v>
+        <f t="shared" ref="J134:J166" si="7">$F134&amp;IF(ISBLANK($G134),"","_"&amp;$G134)&amp;IF(ISBLANK($H134),"",$H134)&amp;IF(ISBLANK($I134),"","_"&amp;$I134)</f>
+        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepMinimized_Description</v>
       </c>
       <c r="K134" s="2"/>
-      <c r="L134" s="10" t="s">
-        <v>680</v>
+      <c r="L134" s="9" t="s">
+        <v>509</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>422</v>
@@ -9499,35 +9596,35 @@
         <v>512</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>525</v>
+        <v>424</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_Type_Description</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="10" t="s">
-        <v>681</v>
+      <c r="L135" s="9" t="s">
+        <v>677</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>686</v>
+        <v>513</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>422</v>
@@ -9536,35 +9633,35 @@
         <v>512</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideWhenHandTrackingEnds_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ManualOnOff_Description</v>
       </c>
       <c r="K136" s="2"/>
-      <c r="L136" s="10" t="s">
-        <v>682</v>
+      <c r="L136" s="9" t="s">
+        <v>678</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>528</v>
+        <v>679</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>701</v>
+        <v>762</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>422</v>
@@ -9573,35 +9670,35 @@
         <v>512</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K137" s="2"/>
-      <c r="L137" s="10" t="s">
-        <v>683</v>
+      <c r="L137" s="9" t="s">
+        <v>518</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="N137" s="5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>422</v>
@@ -9610,35 +9707,35 @@
         <v>512</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideWhenHandTrackingEnds_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_Description</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>422</v>
@@ -9647,183 +9744,183 @@
         <v>512</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="10" t="s">
-        <v>537</v>
+        <v>681</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>539</v>
+        <v>422</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_BasicSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideWhenHandTrackingEnds_Description</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="9" t="s">
-        <v>542</v>
+      <c r="L140" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>539</v>
+        <v>422</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_CameraViewSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K141" s="2"/>
-      <c r="L141" s="9" t="s">
-        <v>221</v>
+      <c r="L141" s="10" t="s">
+        <v>683</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>222</v>
+        <v>531</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>223</v>
+        <v>702</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>539</v>
+        <v>422</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_AdvancedSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideWhenHandTrackingEnds_Description</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="9" t="s">
-        <v>549</v>
+      <c r="L142" s="10" t="s">
+        <v>684</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>551</v>
+        <v>703</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>539</v>
+        <v>422</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_DeveloperSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="9" t="s">
-        <v>554</v>
+      <c r="L143" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>555</v>
+        <v>685</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>790</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>539</v>
@@ -9832,35 +9929,35 @@
         <v>540</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_ExvisionSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_BasicSettings_Description</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="9" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>791</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>539</v>
@@ -9869,35 +9966,35 @@
         <v>540</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_TutorialAppSettings_Description</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_CameraViewSettings_Description</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="9" t="s">
-        <v>562</v>
+        <v>221</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>563</v>
+        <v>222</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>564</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>539</v>
@@ -9906,35 +10003,35 @@
         <v>540</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_StartTutorial_Description</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_AdvancedSettings_Description</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="9" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>792</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>539</v>
@@ -9943,35 +10040,35 @@
         <v>540</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_OptionsForLowerSpecPc_Description</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_DeveloperSettings_Description</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="9" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>763</v>
+        <v>555</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>539</v>
@@ -9980,171 +10077,183 @@
         <v>540</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SettingsUserControl_AnalogGain_Description</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_ExvisionSettings_Description</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="9" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>756</v>
+        <v>540</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_TutorialWindowTitle</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_TutorialAppSettings_Description</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="9" t="s">
-        <v>755</v>
+        <v>562</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>754</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>579</v>
+        <v>540</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_EndUserLicenseAgreement</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_StartTutorial_Description</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="9" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>582</v>
+        <v>791</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>584</v>
+        <v>540</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_PrivacyPolicy</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_OptionsForLowerSpecPc_Description</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="9" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>586</v>
+        <v>763</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>587</v>
+        <v>765</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>589</v>
+        <v>540</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_IAcceptTheEula</v>
+        <f t="shared" si="7"/>
+        <v>SettingsUserControl_AnalogGain_Description</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="9" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>592</v>
+        <v>792</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>577</v>
@@ -10153,32 +10262,32 @@
         <v>578</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>594</v>
+        <v>756</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_BySelectingNext_YouAgreeToExvisions</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_TutorialWindowTitle</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="9" t="s">
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>596</v>
+        <v>753</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>597</v>
+        <v>754</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>577</v>
@@ -10186,33 +10295,33 @@
       <c r="F154" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>599</v>
+      <c r="G154" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_LetsStartTutorials</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_EndUserLicenseAgreement</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="9" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>577</v>
@@ -10220,33 +10329,33 @@
       <c r="F155" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>604</v>
+      <c r="G155" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_FailedToPlayAVideo</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_PrivacyPolicy</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="9" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>577</v>
@@ -10254,33 +10363,33 @@
       <c r="F156" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>609</v>
+      <c r="G156" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_ZkooTutorialIsStarting</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_IAcceptTheEula</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="9" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>577</v>
@@ -10288,33 +10397,33 @@
       <c r="F157" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>614</v>
+      <c r="G157" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_ZkooTutorialNeedsInternetConnections</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_BySelectingNext_YouAgreeToExvisions</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="9" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>794</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>577</v>
@@ -10322,33 +10431,33 @@
       <c r="F158" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>618</v>
+      <c r="G158" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_Replay</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_LetsStartTutorials</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="9" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>577</v>
@@ -10356,33 +10465,33 @@
       <c r="F159" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>622</v>
+      <c r="G159" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_Video</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_FailedToPlayAVideo</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="9" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>577</v>
@@ -10390,33 +10499,33 @@
       <c r="F160" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>626</v>
+      <c r="G160" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_Retry</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_ZkooTutorialIsStarting</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="9" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>577</v>
@@ -10424,33 +10533,33 @@
       <c r="F161" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G161" s="3" t="s">
-        <v>629</v>
+      <c r="G161" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_Next</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_ZkooTutorialNeedsInternetConnections</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="9" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>631</v>
+        <v>793</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>577</v>
@@ -10458,33 +10567,33 @@
       <c r="F162" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>633</v>
+      <c r="G162" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ZkooTutorialModel_PleaseTapCirclesInOrder</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_Replay</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="9" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>712</v>
+        <v>657</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>577</v>
@@ -10492,33 +10601,33 @@
       <c r="F163" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>638</v>
+      <c r="G163" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f t="shared" ref="J163:J171" si="7">$F163&amp;IF(ISBLANK($G163),"","_"&amp;$G163)&amp;IF(ISBLANK($H163),"",$H163)&amp;IF(ISBLANK($I163),"","_"&amp;$I163)</f>
-        <v>ZkooTutorialModel_SkipVideo</v>
+        <f t="shared" si="7"/>
+        <v>ZkooTutorialModel_Video</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="9" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>577</v>
@@ -10526,33 +10635,33 @@
       <c r="F164" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>643</v>
+      <c r="G164" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="J164" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_Complete</v>
+        <v>ZkooTutorialModel_Retry</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="9" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>577</v>
@@ -10560,33 +10669,33 @@
       <c r="F165" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>648</v>
+      <c r="G165" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="J165" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_TryAgain</v>
+        <v>ZkooTutorialModel_Next</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="9" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>743</v>
+        <v>670</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>577</v>
@@ -10595,32 +10704,32 @@
         <v>578</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="J166" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_WellDone</v>
+        <v>ZkooTutorialModel_PleaseTapCirclesInOrder</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="9" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>577</v>
@@ -10629,32 +10738,32 @@
         <v>578</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_TutorialCompletes</v>
+        <f t="shared" ref="J167:J175" si="8">$F167&amp;IF(ISBLANK($G167),"","_"&amp;$G167)&amp;IF(ISBLANK($H167),"",$H167)&amp;IF(ISBLANK($I167),"","_"&amp;$I167)</f>
+        <v>ZkooTutorialModel_SkipVideo</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="9" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>577</v>
@@ -10663,31 +10772,32 @@
         <v>578</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J168" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="J168" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_Complete</v>
+      </c>
+      <c r="K168" s="2"/>
       <c r="L168" s="9" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>577</v>
@@ -10696,31 +10806,32 @@
         <v>578</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J169" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J169" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_TryAgain</v>
+      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="9" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="N169" s="8" t="s">
-        <v>764</v>
+        <v>650</v>
+      </c>
+      <c r="N169" s="5" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>577</v>
@@ -10729,32 +10840,32 @@
         <v>578</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_WellDone</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="9" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>577</v>
@@ -10763,29 +10874,163 @@
         <v>578</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>747</v>
+        <v>658</v>
       </c>
       <c r="J171" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_TryAgainDetail</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_TutorialCompletes</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A172" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="J172" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="M172" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A173" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J173" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A174" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J174" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
+      </c>
+      <c r="K174" s="2"/>
+      <c r="L174" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="M174" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_TryAgainDetail</v>
+      </c>
+      <c r="K175" s="2"/>
+      <c r="L175" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="M171" s="9" t="s">
+      <c r="M175" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="N171" s="12" t="s">
-        <v>797</v>
+      <c r="N175" s="12" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O132">
-    <sortCondition ref="D2:D132"/>
-    <sortCondition ref="E2:E132"/>
-    <sortCondition ref="F2:F132"/>
-    <sortCondition ref="A2:A132"/>
+  <sortState ref="A2:O136">
+    <sortCondition ref="D2:D136"/>
+    <sortCondition ref="E2:E136"/>
+    <sortCondition ref="F2:F136"/>
+    <sortCondition ref="A2:A136"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="833">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -4521,10 +4521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>进程在主机上 (更高的精度)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FaceDetectionIsProcessedByDetail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4562,6 +4558,114 @@
   <si>
     <t>LongerDistanceNeedsMoreCpuUsage</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>进程在主机上 (更高的精度)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的距离需要更多的CPU使用)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DetectionSensitivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤検出を減らす</t>
+    <rPh sb="0" eb="3">
+      <t>ゴケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未検出を減らす</t>
+    <rPh sb="0" eb="3">
+      <t>ミケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DecreaseFalseNegativeRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DecreaseFalsePositiveRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Sensitivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Specificity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detection Threshold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検出しきい値</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>检测阈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
+    <t>高灵敏度</t>
+  </si>
+  <si>
+    <t>高特异性</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +4769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4714,6 +4818,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5031,12 +5138,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6354,7 +6461,7 @@
         <v>175</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" ref="J43:J89" si="2">$F43&amp;IF(ISBLANK($G43),"","_"&amp;$G43)&amp;IF(ISBLANK($H43),"",$H43)&amp;IF(ISBLANK($I43),"","_"&amp;$I43)</f>
+        <f t="shared" ref="J43:J92" si="2">$F43&amp;IF(ISBLANK($G43),"","_"&amp;$G43)&amp;IF(ISBLANK($H43),"",$H43)&amp;IF(ISBLANK($I43),"","_"&amp;$I43)</f>
         <v>CommonStrings_IsNotConnected</v>
       </c>
       <c r="K43" s="2"/>
@@ -7730,7 +7837,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>341</v>
+        <v>459</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>112</v>
@@ -7742,1035 +7849,1026 @@
         <v>15</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f>$F84&amp;IF(ISBLANK($G84),"","_"&amp;$G84)&amp;IF(ISBLANK($H84),"",$H84)&amp;IF(ISBLANK($I84),"","_"&amp;$I84)</f>
+        <v>CommonStrings_DetectionSensitivity</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f>$F85&amp;IF(ISBLANK($G85),"","_"&amp;$G85)&amp;IF(ISBLANK($H85),"",$H85)&amp;IF(ISBLANK($I85),"","_"&amp;$I85)</f>
+        <v>CommonStrings_DecreaseFalseNegativeRate</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="M85" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>$F86&amp;IF(ISBLANK($G86),"","_"&amp;$G86)&amp;IF(ISBLANK($H86),"",$H86)&amp;IF(ISBLANK($I86),"","_"&amp;$I86)</f>
+        <v>CommonStrings_DecreaseFalsePositiveRate</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="M86" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J84" s="1" t="str">
+      <c r="J87" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EgsDevice_DeviceStatusDetailString_Description</v>
       </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="9" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="M84" s="9" t="s">
+      <c r="M87" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N87" s="5" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J85" s="1" t="str">
+      <c r="J88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>OnePersonBothHandsViewModel_IsToShowGestureCursors_Description</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="9" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="M85" s="9" t="s">
+      <c r="M88" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N88" s="5" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" s="2" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J86" s="1" t="str">
+      <c r="J89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>OnePersonBothHandsViewModel_GestureCursorType_Description</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="9" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="M86" s="9" t="s">
+      <c r="M89" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N89" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="2" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J87" s="1" t="str">
+      <c r="J90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>CameraViewUserControlModel_IsToDrawImageSet_Description</v>
       </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="10" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M87" s="10" t="s">
+      <c r="M90" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="N90" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J88" s="1" t="str">
+      <c r="J91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>CameraViewUserControlModel_ImageSetIndex_Description</v>
       </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="10" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="M88" s="10" t="s">
+      <c r="M91" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="N91" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J89" s="1" t="str">
+      <c r="J92" s="1" t="str">
         <f t="shared" si="2"/>
         <v>CameraViewWindowModel_LocationAndSize_Description</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="10" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M89" s="10" t="s">
+      <c r="M92" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="N89" s="6" t="s">
+      <c r="N92" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="2" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J90" s="1" t="str">
-        <f t="shared" ref="J90:J133" si="5">$F90&amp;IF(ISBLANK($G90),"","_"&amp;$G90)&amp;IF(ISBLANK($H90),"",$H90)&amp;IF(ISBLANK($I90),"","_"&amp;$I90)</f>
+      <c r="J93" s="1" t="str">
+        <f t="shared" ref="J93:J136" si="5">$F93&amp;IF(ISBLANK($G93),"","_"&amp;$G93)&amp;IF(ISBLANK($H93),"",$H93)&amp;IF(ISBLANK($I93),"","_"&amp;$I93)</f>
         <v>CameraViewWindowModel_CanDragMove_Description</v>
       </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="10" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="M90" s="10" t="s">
+      <c r="M93" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N93" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J91" s="1" t="str">
+      <c r="J94" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_CanDragMoveEnabled_Description</v>
       </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="9" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="M94" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N94" s="5" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J92" s="1" t="str">
+      <c r="J95" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_CanDragMoveDisabled_Description</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="9" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="M92" s="9" t="s">
+      <c r="M95" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N95" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J93" s="1" t="str">
+      <c r="J96" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_CanResize_Description</v>
       </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="10" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="M93" s="10" t="s">
+      <c r="M96" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="N93" s="6" t="s">
+      <c r="N96" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A94" s="2" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="1" t="str">
+      <c r="J97" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_CanShowMenu_Description</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="10" t="s">
+      <c r="K97" s="2"/>
+      <c r="L97" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="M94" s="10" t="s">
+      <c r="M97" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="N94" s="6" t="s">
+      <c r="N97" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J95" s="1" t="str">
+      <c r="J98" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_Topmost_Description</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="10" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="M95" s="10" t="s">
+      <c r="M98" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="N95" s="6" t="s">
+      <c r="N98" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J96" s="1" t="str">
+      <c r="J99" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowModel_WindowStateControlMethodSetByUser_Description</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="10" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="M96" s="10" t="s">
+      <c r="M99" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="N96" s="6" t="s">
+      <c r="N99" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J97" s="1" t="str">
-        <f>$F97&amp;IF(ISBLANK($G97),"","_"&amp;$G97)&amp;IF(ISBLANK($H97),"",$H97)&amp;IF(ISBLANK($I97),"","_"&amp;$I97)</f>
+      <c r="J100" s="1" t="str">
+        <f>$F100&amp;IF(ISBLANK($G100),"","_"&amp;$G100)&amp;IF(ISBLANK($H100),"",$H100)&amp;IF(ISBLANK($I100),"","_"&amp;$I100)</f>
         <v>EgsDeviceFirmwareUpdateModel_UpdateDeviceFirmware</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="9" t="s">
+      <c r="K100" s="2"/>
+      <c r="L100" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="M97" s="9" t="s">
+      <c r="M100" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N100" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="B101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J98" s="1" t="str">
+      <c r="J101" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DeviceFirmwareUpdate</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="9" t="s">
+      <c r="K101" s="2"/>
+      <c r="L101" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="M98" s="9" t="s">
+      <c r="M101" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N101" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
+    <row r="102" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="B102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J99" s="1" t="str">
+      <c r="J102" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_PleaseUpdateDeviceFirmware</v>
       </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="9" t="s">
+      <c r="K102" s="2"/>
+      <c r="L102" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M102" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="N99" s="12" t="s">
+      <c r="N102" s="12" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J100" s="1" t="str">
+      <c r="J103" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DoNotDisconnectTheDevice</v>
       </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="9" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="M100" s="9" t="s">
+      <c r="M103" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="N100" s="12" t="s">
+      <c r="N103" s="12" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J101" s="1" t="str">
+      <c r="J104" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsReboot</v>
       </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="9" t="s">
+      <c r="K104" s="2"/>
+      <c r="L104" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="M101" s="9" t="s">
+      <c r="M104" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="N101" s="12" t="s">
+      <c r="N104" s="12" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
+    <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J102" s="1" t="str">
+      <c r="J105" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToDisconnectPowerCable</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="9" t="s">
+      <c r="K105" s="2"/>
+      <c r="L105" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="M102" s="9" t="s">
+      <c r="M105" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="N102" s="12" t="s">
+      <c r="N105" s="12" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A103" s="2" t="s">
+    <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J103" s="1" t="str">
+      <c r="J106" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToConnectPowerCable</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="9" t="s">
+      <c r="K106" s="2"/>
+      <c r="L106" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="M106" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="N103" s="12" t="s">
+      <c r="N106" s="12" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A104" s="2" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J104" s="1" t="str">
+      <c r="J107" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuImageFileIsInvalid</v>
       </c>
-      <c r="K104" s="2"/>
-      <c r="L104" s="9" t="s">
+      <c r="K107" s="2"/>
+      <c r="L107" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M107" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="N104" s="12" t="s">
+      <c r="N107" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A105" s="2" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J105" s="1" t="str">
+      <c r="J108" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuCanceled</v>
       </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="9" t="s">
+      <c r="K108" s="2"/>
+      <c r="L108" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="M108" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="N105" s="12" t="s">
+      <c r="N108" s="12" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A106" s="2" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J106" s="1" t="str">
+      <c r="J109" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_RestartDfuFromBeginning</v>
       </c>
-      <c r="K106" s="2"/>
-      <c r="L106" s="9" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="M109" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="N106" s="12" t="s">
+      <c r="N109" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J107" s="1" t="str">
+      <c r="J110" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuFailed</v>
       </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="9" t="s">
+      <c r="K110" s="2"/>
+      <c r="L110" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M110" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="N107" s="12" t="s">
+      <c r="N110" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A108" s="2" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J108" s="1" t="str">
+      <c r="J111" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_AppWillRetrySendingImageAgain</v>
       </c>
-      <c r="K108" s="2"/>
-      <c r="L108" s="9" t="s">
+      <c r="K111" s="2"/>
+      <c r="L111" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M111" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="N108" s="12" t="s">
+      <c r="N111" s="12" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="J109" s="1" t="str">
+      <c r="J112" s="1" t="str">
         <f t="shared" si="5"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuCompleted</v>
       </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J110" s="1" t="str">
-        <f t="shared" ref="J110:J116" si="6">$F110&amp;IF(ISBLANK($G110),"","_"&amp;$G110)&amp;IF(ISBLANK($H110),"",$H110)&amp;IF(ISBLANK($I110),"","_"&amp;$I110)</f>
-        <v>CameraViewBordersAndPointersAreDrawnByDetail_Type_Description</v>
-      </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J111" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewBordersAndPointersAreDrawnByDetail_ByHostApplication_Description</v>
-      </c>
-      <c r="K111" s="2"/>
-      <c r="L111" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="N111" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J112" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CameraViewBordersAndPointersAreDrawnByDetail_ByDevice_Description</v>
-      </c>
       <c r="K112" s="2"/>
       <c r="L112" s="9" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>809</v>
+        <v>420</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>112</v>
@@ -8782,27 +8880,27 @@
         <v>422</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>814</v>
+        <v>423</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>804</v>
+        <v>424</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_Type_Description</v>
+        <f t="shared" ref="J113:J119" si="6">$F113&amp;IF(ISBLANK($G113),"","_"&amp;$G113)&amp;IF(ISBLANK($H113),"",$H113)&amp;IF(ISBLANK($I113),"","_"&amp;$I113)</f>
+        <v>CameraViewBordersAndPointersAreDrawnByDetail_Type_Description</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="N113" s="15" t="s">
-        <v>806</v>
+      <c r="L113" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
@@ -8819,7 +8917,7 @@
         <v>422</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>814</v>
+        <v>423</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>428</v>
@@ -8829,17 +8927,17 @@
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_ByHostApplication_Description</v>
+        <v>CameraViewBordersAndPointersAreDrawnByDetail_ByHostApplication_Description</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="M114" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>813</v>
+      <c r="L114" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
@@ -8856,7 +8954,7 @@
         <v>422</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>814</v>
+        <v>423</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>433</v>
@@ -8866,22 +8964,22 @@
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_ByDevice_Description</v>
+        <v>CameraViewBordersAndPointersAreDrawnByDetail_ByDevice_Description</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="M115" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="N115" s="17" t="s">
-        <v>810</v>
+      <c r="L115" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>112</v>
@@ -8890,32 +8988,35 @@
         <v>802</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>819</v>
+        <v>804</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
+        <v>FaceDetectionIsProcessedByDetail_Type_Description</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="M116" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="N116" s="16" t="s">
-        <v>816</v>
+      <c r="L116" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="N116" s="15" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>112</v>
@@ -8927,2110 +9028,2218 @@
         <v>422</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>437</v>
+        <v>813</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J117" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>FaceDetectionIsProcessedByDetail_ByHostApplication_Description</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="M117" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="N117" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>FaceDetectionIsProcessedByDetail_ByDevice_Description</v>
+      </c>
+      <c r="K118" s="2"/>
+      <c r="L118" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="M118" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="N118" s="17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="M119" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="N119" s="16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J120" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Type_Description</v>
       </c>
-      <c r="K117" s="2"/>
-      <c r="L117" s="9" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="M117" s="9" t="s">
+      <c r="M120" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N120" s="5" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J118" s="1" t="str">
+      <c r="J121" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_UseOSCulture_Description</v>
       </c>
-      <c r="K118" s="2"/>
-      <c r="L118" s="9" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M118" s="9" t="s">
+      <c r="M121" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N121" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J119" s="1" t="str">
+      <c r="J122" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_English_Description</v>
       </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="9" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="M119" s="9" t="s">
+      <c r="M122" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="N119" s="12" t="s">
+      <c r="N122" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A120" s="2" t="s">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J120" s="1" t="str">
+      <c r="J123" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Japanese_Description</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="9" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="M120" s="9" t="s">
+      <c r="M123" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="N120" s="12" t="s">
+      <c r="N123" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J121" s="1" t="str">
+      <c r="J124" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CultureInfoAndDescriptionDetail_Chinese_Description</v>
       </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="11" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M124" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N124" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A122" s="2" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="B125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J122" s="1" t="str">
+      <c r="J125" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_Type_Description</v>
       </c>
-      <c r="K122" s="2"/>
-      <c r="L122" s="9" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="M122" s="9" t="s">
+      <c r="M125" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N125" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J123" s="1" t="str">
+      <c r="J126" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_None_Description</v>
       </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="9" t="s">
+      <c r="K126" s="2"/>
+      <c r="L126" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="M123" s="9" t="s">
+      <c r="M126" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N126" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A124" s="2" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J124" s="1" t="str">
+      <c r="J127" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_FirstFoundHand_Description</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="9" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="M124" s="9" t="s">
+      <c r="M127" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N127" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J125" s="1" t="str">
+      <c r="J128" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_RightHand_Description</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="9" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="M125" s="9" t="s">
+      <c r="M128" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="N125" s="12" t="s">
+      <c r="N128" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A126" s="2" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J126" s="1" t="str">
+      <c r="J129" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_LeftHand_Description</v>
       </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="9" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M126" s="9" t="s">
+      <c r="M129" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="N126" s="12" t="s">
+      <c r="N129" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A127" s="2" t="s">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="B130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J127" s="1" t="str">
+      <c r="J130" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_Type_Description</v>
       </c>
-      <c r="K127" s="2"/>
-      <c r="L127" s="9" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="M127" s="9" t="s">
+      <c r="M130" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N130" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A128" s="2" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J128" s="1" t="str">
+      <c r="J131" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByHidReportUpdatedEvent_Description</v>
       </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="9" t="s">
+      <c r="K131" s="2"/>
+      <c r="L131" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="M128" s="9" t="s">
+      <c r="M131" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N131" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A129" s="2" t="s">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J129" s="1" t="str">
+      <c r="J132" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByTimer60Fps_Description</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="9" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="M129" s="9" t="s">
+      <c r="M132" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N132" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A130" s="2" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J130" s="1" t="str">
+      <c r="J133" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CursorDrawingTimingMethodDetail_ByTimer30Fps_Description</v>
       </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="9" t="s">
+      <c r="K133" s="2"/>
+      <c r="L133" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="M130" s="9" t="s">
+      <c r="M133" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N133" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J131" s="1" t="str">
+      <c r="J134" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_Type_Description</v>
       </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="9" t="s">
+      <c r="K134" s="2"/>
+      <c r="L134" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="M131" s="9" t="s">
+      <c r="M134" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N134" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A132" s="2" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J132" s="1" t="str">
+      <c r="J135" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_UseUsersControlMethods_Description</v>
       </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="9" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="M132" s="9" t="s">
+      <c r="M135" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N135" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J133" s="1" t="str">
+      <c r="J136" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepNormal_Description</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="9" t="s">
+      <c r="K136" s="2"/>
+      <c r="L136" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="M133" s="9" t="s">
+      <c r="M136" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="N133" s="5" t="s">
+      <c r="N136" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A134" s="2" t="s">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="B137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J134" s="1" t="str">
-        <f t="shared" ref="J134:J166" si="7">$F134&amp;IF(ISBLANK($G134),"","_"&amp;$G134)&amp;IF(ISBLANK($H134),"",$H134)&amp;IF(ISBLANK($I134),"","_"&amp;$I134)</f>
+      <c r="J137" s="1" t="str">
+        <f t="shared" ref="J137:J169" si="7">$F137&amp;IF(ISBLANK($G137),"","_"&amp;$G137)&amp;IF(ISBLANK($H137),"",$H137)&amp;IF(ISBLANK($I137),"","_"&amp;$I137)</f>
         <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepMinimized_Description</v>
       </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="9" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="M134" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N137" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A135" s="2" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="B138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J135" s="1" t="str">
+      <c r="J138" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_Type_Description</v>
       </c>
-      <c r="K135" s="2"/>
-      <c r="L135" s="9" t="s">
+      <c r="K138" s="2"/>
+      <c r="L138" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="M135" s="9" t="s">
+      <c r="M138" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N138" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A136" s="2" t="s">
+    <row r="139" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="B139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J136" s="1" t="str">
+      <c r="J139" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ManualOnOff_Description</v>
       </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="9" t="s">
+      <c r="K139" s="2"/>
+      <c r="L139" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="M139" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N139" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A137" s="2" t="s">
+    <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A140" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="B140" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J137" s="1" t="str">
+      <c r="J140" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="9" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="M137" s="9" t="s">
+      <c r="M140" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="N137" s="8" t="s">
+      <c r="N140" s="8" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A138" s="2" t="s">
+    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="B141" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J138" s="1" t="str">
+      <c r="J141" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_Description</v>
       </c>
-      <c r="K138" s="2"/>
-      <c r="L138" s="10" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="M138" s="9" t="s">
+      <c r="M141" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N141" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A139" s="2" t="s">
+    <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="B142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J139" s="1" t="str">
+      <c r="J142" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="10" t="s">
+      <c r="K142" s="2"/>
+      <c r="L142" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="M142" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N142" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A140" s="2" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="B143" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J140" s="1" t="str">
+      <c r="J143" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideWhenHandTrackingEnds_Description</v>
       </c>
-      <c r="K140" s="2"/>
-      <c r="L140" s="10" t="s">
+      <c r="K143" s="2"/>
+      <c r="L143" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="M140" s="9" t="s">
+      <c r="M143" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N143" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
+    <row r="144" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A144" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="B144" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J141" s="1" t="str">
+      <c r="J144" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="10" t="s">
+      <c r="K144" s="2"/>
+      <c r="L144" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="M141" s="9" t="s">
+      <c r="M144" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N144" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A142" s="2" t="s">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A145" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="B145" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J142" s="1" t="str">
+      <c r="J145" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideWhenHandTrackingEnds_Description</v>
       </c>
-      <c r="K142" s="2"/>
-      <c r="L142" s="10" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="M142" s="9" t="s">
+      <c r="M145" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N145" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A143" s="2" t="s">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="B146" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J143" s="1" t="str">
+      <c r="J146" s="1" t="str">
         <f t="shared" si="7"/>
         <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
-      <c r="K143" s="2"/>
-      <c r="L143" s="10" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="M143" s="9" t="s">
+      <c r="M146" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="N143" s="5" t="s">
+      <c r="N146" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A144" s="2" t="s">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A147" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="B147" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J144" s="1" t="str">
+      <c r="J147" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_BasicSettings_Description</v>
       </c>
-      <c r="K144" s="2"/>
-      <c r="L144" s="9" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="M144" s="9" t="s">
+      <c r="M147" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N147" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A145" s="2" t="s">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A148" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="B148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J145" s="1" t="str">
+      <c r="J148" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_CameraViewSettings_Description</v>
       </c>
-      <c r="K145" s="2"/>
-      <c r="L145" s="9" t="s">
+      <c r="K148" s="2"/>
+      <c r="L148" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="M145" s="9" t="s">
+      <c r="M148" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N148" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A146" s="2" t="s">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J146" s="1" t="str">
+      <c r="J149" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_AdvancedSettings_Description</v>
       </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="9" t="s">
+      <c r="K149" s="2"/>
+      <c r="L149" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="M146" s="9" t="s">
+      <c r="M149" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N149" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A147" s="2" t="s">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="I150" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J147" s="1" t="str">
+      <c r="J150" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_DeveloperSettings_Description</v>
       </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="9" t="s">
+      <c r="K150" s="2"/>
+      <c r="L150" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="M147" s="9" t="s">
+      <c r="M150" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N150" s="5" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A148" s="2" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A151" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J148" s="1" t="str">
+      <c r="J151" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_ExvisionSettings_Description</v>
       </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="9" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="M148" s="9" t="s">
+      <c r="M151" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N151" s="5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A149" s="2" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A152" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="B152" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J149" s="1" t="str">
+      <c r="J152" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_TutorialAppSettings_Description</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="9" t="s">
+      <c r="K152" s="2"/>
+      <c r="L152" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="M149" s="9" t="s">
+      <c r="M152" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N152" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A150" s="2" t="s">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="B153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J150" s="1" t="str">
+      <c r="J153" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_StartTutorial_Description</v>
       </c>
-      <c r="K150" s="2"/>
-      <c r="L150" s="9" t="s">
+      <c r="K153" s="2"/>
+      <c r="L153" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="M150" s="9" t="s">
+      <c r="M153" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N153" s="5" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A151" s="2" t="s">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A154" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J151" s="1" t="str">
+      <c r="J154" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_OptionsForLowerSpecPc_Description</v>
       </c>
-      <c r="K151" s="2"/>
-      <c r="L151" s="9" t="s">
+      <c r="K154" s="2"/>
+      <c r="L154" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="M151" s="9" t="s">
+      <c r="M154" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N154" s="5" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A152" s="2" t="s">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A155" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="B155" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J152" s="1" t="str">
+      <c r="J155" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SettingsUserControl_AnalogGain_Description</v>
       </c>
-      <c r="K152" s="2"/>
-      <c r="L152" s="9" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="M152" s="9" t="s">
+      <c r="M155" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N155" s="5" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A153" s="2" t="s">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A156" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="B156" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G156" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="J153" s="1" t="str">
+      <c r="J156" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_TutorialWindowTitle</v>
       </c>
-      <c r="K153" s="2"/>
-      <c r="L153" s="9" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="M156" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N156" s="5" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A154" s="2" t="s">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G157" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J154" s="1" t="str">
+      <c r="J157" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_EndUserLicenseAgreement</v>
       </c>
-      <c r="K154" s="2"/>
-      <c r="L154" s="9" t="s">
+      <c r="K157" s="2"/>
+      <c r="L157" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="M154" s="9" t="s">
+      <c r="M157" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N157" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A155" s="2" t="s">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="B158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="J155" s="1" t="str">
+      <c r="J158" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_PrivacyPolicy</v>
       </c>
-      <c r="K155" s="2"/>
-      <c r="L155" s="9" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="M155" s="9" t="s">
+      <c r="M158" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N158" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A156" s="2" t="s">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="B159" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="J156" s="1" t="str">
+      <c r="J159" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_IAcceptTheEula</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="9" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="M156" s="9" t="s">
+      <c r="M159" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N159" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A157" s="2" t="s">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A160" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="B160" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G160" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="J157" s="1" t="str">
+      <c r="J160" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_BySelectingNext_YouAgreeToExvisions</v>
       </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="9" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="M157" s="9" t="s">
+      <c r="M160" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N160" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A158" s="2" t="s">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A161" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="B161" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J158" s="1" t="str">
+      <c r="J161" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_LetsStartTutorials</v>
       </c>
-      <c r="K158" s="2"/>
-      <c r="L158" s="9" t="s">
+      <c r="K161" s="2"/>
+      <c r="L161" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="M158" s="9" t="s">
+      <c r="M161" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N161" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A159" s="2" t="s">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A162" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="B162" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="J159" s="1" t="str">
+      <c r="J162" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_FailedToPlayAVideo</v>
       </c>
-      <c r="K159" s="2"/>
-      <c r="L159" s="9" t="s">
+      <c r="K162" s="2"/>
+      <c r="L162" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="M159" s="9" t="s">
+      <c r="M162" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N162" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A160" s="2" t="s">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A163" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="B163" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="J160" s="1" t="str">
+      <c r="J163" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_ZkooTutorialIsStarting</v>
       </c>
-      <c r="K160" s="2"/>
-      <c r="L160" s="9" t="s">
+      <c r="K163" s="2"/>
+      <c r="L163" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="M160" s="9" t="s">
+      <c r="M163" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N163" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A161" s="2" t="s">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A164" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J161" s="1" t="str">
+      <c r="J164" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_ZkooTutorialNeedsInternetConnections</v>
       </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="9" t="s">
+      <c r="K164" s="2"/>
+      <c r="L164" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="M161" s="9" t="s">
+      <c r="M164" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="N161" s="5" t="s">
+      <c r="N164" s="5" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A162" s="2" t="s">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A165" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="B165" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G165" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="J162" s="1" t="str">
+      <c r="J165" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_Replay</v>
       </c>
-      <c r="K162" s="2"/>
-      <c r="L162" s="9" t="s">
+      <c r="K165" s="2"/>
+      <c r="L165" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="M162" s="9" t="s">
+      <c r="M165" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N165" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A163" s="2" t="s">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A166" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="B166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="J163" s="1" t="str">
+      <c r="J166" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_Video</v>
       </c>
-      <c r="K163" s="2"/>
-      <c r="L163" s="9" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="M163" s="9" t="s">
+      <c r="M166" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N166" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A164" s="2" t="s">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A167" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="B167" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G167" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="J164" s="1" t="str">
+      <c r="J167" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_Retry</v>
       </c>
-      <c r="K164" s="2"/>
-      <c r="L164" s="9" t="s">
+      <c r="K167" s="2"/>
+      <c r="L167" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="M164" s="9" t="s">
+      <c r="M167" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N167" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A165" s="2" t="s">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A168" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="B168" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G168" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J165" s="1" t="str">
+      <c r="J168" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_Next</v>
       </c>
-      <c r="K165" s="2"/>
-      <c r="L165" s="9" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="M165" s="9" t="s">
+      <c r="M168" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N168" s="5" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A166" s="2" t="s">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A169" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="B169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="J166" s="1" t="str">
+      <c r="J169" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ZkooTutorialModel_PleaseTapCirclesInOrder</v>
       </c>
-      <c r="K166" s="2"/>
-      <c r="L166" s="9" t="s">
+      <c r="K169" s="2"/>
+      <c r="L169" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="M166" s="9" t="s">
+      <c r="M169" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N169" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A167" s="2" t="s">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A170" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="B170" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J167" s="1" t="str">
-        <f t="shared" ref="J167:J175" si="8">$F167&amp;IF(ISBLANK($G167),"","_"&amp;$G167)&amp;IF(ISBLANK($H167),"",$H167)&amp;IF(ISBLANK($I167),"","_"&amp;$I167)</f>
+      <c r="J170" s="1" t="str">
+        <f t="shared" ref="J170:J178" si="8">$F170&amp;IF(ISBLANK($G170),"","_"&amp;$G170)&amp;IF(ISBLANK($H170),"",$H170)&amp;IF(ISBLANK($I170),"","_"&amp;$I170)</f>
         <v>ZkooTutorialModel_SkipVideo</v>
       </c>
-      <c r="K167" s="2"/>
-      <c r="L167" s="9" t="s">
+      <c r="K170" s="2"/>
+      <c r="L170" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="M167" s="9" t="s">
+      <c r="M170" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N170" s="5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A168" s="2" t="s">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A171" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="B171" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="J168" s="1" t="str">
+      <c r="J171" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_Complete</v>
       </c>
-      <c r="K168" s="2"/>
-      <c r="L168" s="9" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="M168" s="9" t="s">
+      <c r="M171" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N171" s="5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A169" s="2" t="s">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A172" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="B172" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="J169" s="1" t="str">
+      <c r="J172" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_TryAgain</v>
       </c>
-      <c r="K169" s="2"/>
-      <c r="L169" s="9" t="s">
+      <c r="K172" s="2"/>
+      <c r="L172" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="M169" s="9" t="s">
+      <c r="M172" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N172" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A170" s="2" t="s">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A173" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="B173" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="J170" s="1" t="str">
+      <c r="J173" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_WellDone</v>
       </c>
-      <c r="K170" s="2"/>
-      <c r="L170" s="9" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="M170" s="9" t="s">
+      <c r="M173" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N173" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A171" s="2" t="s">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A174" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="B174" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J171" s="1" t="str">
+      <c r="J174" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_TutorialCompletes</v>
       </c>
-      <c r="K171" s="2"/>
-      <c r="L171" s="9" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="M171" s="9" t="s">
+      <c r="M174" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N174" s="5" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A172" s="2" t="s">
+    <row r="175" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="B175" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="J172" s="3" t="str">
+      <c r="J175" s="3" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
       </c>
-      <c r="L172" s="9" t="s">
+      <c r="L175" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="M172" s="9" t="s">
+      <c r="M175" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N175" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A173" s="2" t="s">
+    <row r="176" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A176" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="B176" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="J173" s="3" t="str">
+      <c r="J176" s="3" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
       </c>
-      <c r="L173" s="9" t="s">
+      <c r="L176" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="M173" s="9" t="s">
+      <c r="M176" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="N173" s="8" t="s">
+      <c r="N176" s="8" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A174" s="2" t="s">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A177" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="B177" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J174" s="1" t="str">
+      <c r="J177" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
       </c>
-      <c r="K174" s="2"/>
-      <c r="L174" s="9" t="s">
+      <c r="K177" s="2"/>
+      <c r="L177" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="M174" s="9" t="s">
+      <c r="M177" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N177" s="5" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A175" s="2" t="s">
+    <row r="178" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+      <c r="A178" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="B178" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J175" s="1" t="str">
+      <c r="J178" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ZkooTutorialModel_TryAgainDetail</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="9" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="M175" s="9" t="s">
+      <c r="M178" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="N175" s="12" t="s">
+      <c r="N178" s="12" t="s">
         <v>796</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O136">
-    <sortCondition ref="D2:D136"/>
-    <sortCondition ref="E2:E136"/>
-    <sortCondition ref="F2:F136"/>
-    <sortCondition ref="A2:A136"/>
+  <sortState ref="A2:O139">
+    <sortCondition ref="D2:D139"/>
+    <sortCondition ref="E2:E139"/>
+    <sortCondition ref="F2:F139"/>
+    <sortCondition ref="A2:A139"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11039,12 +11248,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11207,17 +11415,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11242,18 +11460,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="826">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -4468,31 +4468,6 @@
     <t>../Windows/Projects/Egs/ZkooTutorial/Properties</t>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顔検出を行うデバイス</t>
-    <rPh sb="0" eb="3">
-      <t>カオケンシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>选择处理面部检测的设备</t>
-  </si>
-  <si>
-    <t>Device to Detect Faces</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>by Host Application (Higher Accuracy)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>由</t>
     </r>
@@ -4507,33 +4482,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>过程在设备</t>
-  </si>
-  <si>
-    <t>デバイス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホストアプリケーション (高精度)</t>
-    <rPh sb="13" eb="16">
-      <t>コウセイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FaceDetectionIsProcessedByDetail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EgsDeviceFaceDetectionOnHost</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(Longer Distance Needs More CPU Usage)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>by Device</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4557,10 +4510,6 @@
   </si>
   <si>
     <t>LongerDistanceNeedsMoreCpuUsage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>进程在主机上 (更高的精度)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4592,10 +4541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DetectionSensitivity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>誤検出を減らす</t>
     <rPh sb="0" eb="3">
       <t>ゴケンシュツ</t>
@@ -4666,6 +4611,38 @@
   </si>
   <si>
     <t>高特异性</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max Playable Distance [m]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大検出可能距離[m]</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxPlayableDistanceInMeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DetectionThreshold</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4769,7 +4746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4808,16 +4785,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5138,12 +5106,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7753,7 +7721,7 @@
         <v>709</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f>$F81&amp;IF(ISBLANK($G81),"","_"&amp;$G81)&amp;IF(ISBLANK($H81),"",$H81)&amp;IF(ISBLANK($I81),"","_"&amp;$I81)</f>
+        <f t="shared" ref="J81:J86" si="5">$F81&amp;IF(ISBLANK($G81),"","_"&amp;$G81)&amp;IF(ISBLANK($H81),"",$H81)&amp;IF(ISBLANK($I81),"","_"&amp;$I81)</f>
         <v>CommonStrings_Downloading</v>
       </c>
       <c r="K81" s="2"/>
@@ -7787,7 +7755,7 @@
         <v>297</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f>$F82&amp;IF(ISBLANK($G82),"","_"&amp;$G82)&amp;IF(ISBLANK($H82),"",$H82)&amp;IF(ISBLANK($I82),"","_"&amp;$I82)</f>
+        <f t="shared" si="5"/>
         <v>CommonStrings_Progress</v>
       </c>
       <c r="K82" s="2"/>
@@ -7821,7 +7789,7 @@
         <v>302</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f>$F83&amp;IF(ISBLANK($G83),"","_"&amp;$G83)&amp;IF(ISBLANK($H83),"",$H83)&amp;IF(ISBLANK($I83),"","_"&amp;$I83)</f>
+        <f t="shared" si="5"/>
         <v>CommonStrings_Log</v>
       </c>
       <c r="K83" s="2"/>
@@ -7852,21 +7820,21 @@
         <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f>$F84&amp;IF(ISBLANK($G84),"","_"&amp;$G84)&amp;IF(ISBLANK($H84),"",$H84)&amp;IF(ISBLANK($I84),"","_"&amp;$I84)</f>
-        <v>CommonStrings_DetectionSensitivity</v>
+        <f t="shared" si="5"/>
+        <v>CommonStrings_DetectionThreshold</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="M84" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="N84" s="18" t="s">
-        <v>830</v>
+      <c r="L84" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
@@ -7886,21 +7854,21 @@
         <v>113</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f>$F85&amp;IF(ISBLANK($G85),"","_"&amp;$G85)&amp;IF(ISBLANK($H85),"",$H85)&amp;IF(ISBLANK($I85),"","_"&amp;$I85)</f>
+        <f t="shared" si="5"/>
         <v>CommonStrings_DecreaseFalseNegativeRate</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="M85" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="N85" s="18" t="s">
-        <v>831</v>
+      <c r="L85" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="M85" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
@@ -7920,21 +7888,21 @@
         <v>113</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f>$F86&amp;IF(ISBLANK($G86),"","_"&amp;$G86)&amp;IF(ISBLANK($H86),"",$H86)&amp;IF(ISBLANK($I86),"","_"&amp;$I86)</f>
+        <f t="shared" si="5"/>
         <v>CommonStrings_DecreaseFalsePositiveRate</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="M86" s="16" t="s">
-        <v>822</v>
-      </c>
-      <c r="N86" s="18" t="s">
-        <v>832</v>
+      <c r="L86" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
@@ -8182,7 +8150,7 @@
         <v>226</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" ref="J93:J136" si="5">$F93&amp;IF(ISBLANK($G93),"","_"&amp;$G93)&amp;IF(ISBLANK($H93),"",$H93)&amp;IF(ISBLANK($I93),"","_"&amp;$I93)</f>
+        <f t="shared" ref="J93:J134" si="6">$F93&amp;IF(ISBLANK($G93),"","_"&amp;$G93)&amp;IF(ISBLANK($H93),"",$H93)&amp;IF(ISBLANK($I93),"","_"&amp;$I93)</f>
         <v>CameraViewWindowModel_CanDragMove_Description</v>
       </c>
       <c r="K93" s="2"/>
@@ -8222,7 +8190,7 @@
         <v>226</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_CanDragMoveEnabled_Description</v>
       </c>
       <c r="K94" s="2"/>
@@ -8262,7 +8230,7 @@
         <v>226</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_CanDragMoveDisabled_Description</v>
       </c>
       <c r="K95" s="2"/>
@@ -8299,7 +8267,7 @@
         <v>226</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_CanResize_Description</v>
       </c>
       <c r="K96" s="2"/>
@@ -8336,7 +8304,7 @@
         <v>226</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_CanShowMenu_Description</v>
       </c>
       <c r="K97" s="2"/>
@@ -8373,7 +8341,7 @@
         <v>226</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_Topmost_Description</v>
       </c>
       <c r="K98" s="2"/>
@@ -8410,7 +8378,7 @@
         <v>226</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CameraViewWindowModel_WindowStateControlMethodSetByUser_Description</v>
       </c>
       <c r="K99" s="2"/>
@@ -8478,7 +8446,7 @@
         <v>376</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DeviceFirmwareUpdate</v>
       </c>
       <c r="K101" s="2"/>
@@ -8512,7 +8480,7 @@
         <v>380</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_PleaseUpdateDeviceFirmware</v>
       </c>
       <c r="K102" s="2"/>
@@ -8546,7 +8514,7 @@
         <v>383</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DoNotDisconnectTheDevice</v>
       </c>
       <c r="K103" s="2"/>
@@ -8580,7 +8548,7 @@
         <v>387</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsReboot</v>
       </c>
       <c r="K104" s="2"/>
@@ -8614,7 +8582,7 @@
         <v>391</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToDisconnectPowerCable</v>
       </c>
       <c r="K105" s="2"/>
@@ -8648,7 +8616,7 @@
         <v>395</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToConnectPowerCable</v>
       </c>
       <c r="K106" s="2"/>
@@ -8682,7 +8650,7 @@
         <v>399</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuImageFileIsInvalid</v>
       </c>
       <c r="K107" s="2"/>
@@ -8716,7 +8684,7 @@
         <v>403</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuCanceled</v>
       </c>
       <c r="K108" s="2"/>
@@ -8750,7 +8718,7 @@
         <v>407</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_RestartDfuFromBeginning</v>
       </c>
       <c r="K109" s="2"/>
@@ -8784,7 +8752,7 @@
         <v>410</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuFailed</v>
       </c>
       <c r="K110" s="2"/>
@@ -8818,7 +8786,7 @@
         <v>414</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_AppWillRetrySendingImageAgain</v>
       </c>
       <c r="K111" s="2"/>
@@ -8852,7 +8820,7 @@
         <v>418</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>EgsDeviceFirmwareUpdateModel_DfuCompleted</v>
       </c>
       <c r="K112" s="2"/>
@@ -8889,7 +8857,7 @@
         <v>226</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" ref="J113:J119" si="6">$F113&amp;IF(ISBLANK($G113),"","_"&amp;$G113)&amp;IF(ISBLANK($H113),"",$H113)&amp;IF(ISBLANK($I113),"","_"&amp;$I113)</f>
+        <f t="shared" ref="J113:J117" si="7">$F113&amp;IF(ISBLANK($G113),"","_"&amp;$G113)&amp;IF(ISBLANK($H113),"",$H113)&amp;IF(ISBLANK($I113),"","_"&amp;$I113)</f>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_Type_Description</v>
       </c>
       <c r="K113" s="2"/>
@@ -8926,7 +8894,7 @@
         <v>226</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_ByHostApplication_Description</v>
       </c>
       <c r="K114" s="2"/>
@@ -8963,7 +8931,7 @@
         <v>226</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>CameraViewBordersAndPointersAreDrawnByDetail_ByDevice_Description</v>
       </c>
       <c r="K115" s="2"/>
@@ -8974,12 +8942,12 @@
         <v>435</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>112</v>
@@ -8988,35 +8956,32 @@
         <v>802</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>226</v>
+        <v>808</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_Type_Description</v>
+        <f t="shared" si="7"/>
+        <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="M116" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="M116" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="N116" s="15" t="s">
-        <v>806</v>
+      <c r="N116" s="14" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>112</v>
@@ -9025,35 +8990,35 @@
         <v>802</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>428</v>
+        <v>824</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>226</v>
+        <v>821</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_ByHostApplication_Description</v>
+        <f t="shared" si="7"/>
+        <v>EgsDeviceFaceDetectionOnHost_MaxPlayableDistanceInMeter_Description</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="M117" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="N117" s="17" t="s">
-        <v>819</v>
+      <c r="L117" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="N117" s="14" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>112</v>
@@ -9065,32 +9030,32 @@
         <v>422</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>813</v>
+        <v>437</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>FaceDetectionIsProcessedByDetail_ByDevice_Description</v>
+        <v>CultureInfoAndDescriptionDetail_Type_Description</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="M118" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="N118" s="17" t="s">
-        <v>810</v>
+      <c r="L118" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>112</v>
@@ -9099,32 +9064,35 @@
         <v>802</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>814</v>
+        <v>437</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>818</v>
+        <v>441</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
+        <v>CultureInfoAndDescriptionDetail_UseOSCulture_Description</v>
       </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="16" t="s">
-        <v>815</v>
-      </c>
-      <c r="M119" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="N119" s="16" t="s">
-        <v>820</v>
+      <c r="L119" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>112</v>
@@ -9136,32 +9104,32 @@
         <v>422</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CultureInfoAndDescriptionDetail_Type_Description</v>
+        <f t="shared" si="6"/>
+        <v>CultureInfoAndDescriptionDetail_English_Description</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="9" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>788</v>
+        <v>447</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>112</v>
@@ -9173,32 +9141,32 @@
         <v>422</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CultureInfoAndDescriptionDetail_UseOSCulture_Description</v>
+        <f t="shared" si="6"/>
+        <v>CultureInfoAndDescriptionDetail_Japanese_Description</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
+      </c>
+      <c r="N121" s="12" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>112</v>
@@ -9213,29 +9181,29 @@
         <v>446</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CultureInfoAndDescriptionDetail_English_Description</v>
+        <f t="shared" si="6"/>
+        <v>CultureInfoAndDescriptionDetail_Chinese_Description</v>
       </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="M122" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="N122" s="12" t="s">
-        <v>447</v>
+      <c r="L122" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>112</v>
@@ -9247,32 +9215,32 @@
         <v>422</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CultureInfoAndDescriptionDetail_Japanese_Description</v>
+        <f t="shared" si="6"/>
+        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_Type_Description</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="9" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="N123" s="12" t="s">
-        <v>450</v>
+        <v>458</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>112</v>
@@ -9284,32 +9252,32 @@
         <v>422</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CultureInfoAndDescriptionDetail_Chinese_Description</v>
+        <f t="shared" si="6"/>
+        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_None_Description</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="M124" s="11" t="s">
-        <v>453</v>
+      <c r="L124" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>461</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>454</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>112</v>
@@ -9324,29 +9292,29 @@
         <v>456</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_Type_Description</v>
+        <f t="shared" si="6"/>
+        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_FirstFoundHand_Description</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="9" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>112</v>
@@ -9361,29 +9329,29 @@
         <v>456</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_None_Description</v>
+        <f t="shared" si="6"/>
+        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_RightHand_Description</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="9" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>705</v>
+        <v>469</v>
+      </c>
+      <c r="N126" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>112</v>
@@ -9398,29 +9366,29 @@
         <v>456</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_FirstFoundHand_Description</v>
+        <f t="shared" si="6"/>
+        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_LeftHand_Description</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="9" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>707</v>
+        <v>474</v>
+      </c>
+      <c r="N127" s="12" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>112</v>
@@ -9432,32 +9400,32 @@
         <v>422</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_RightHand_Description</v>
+        <f t="shared" si="6"/>
+        <v>CursorDrawingTimingMethodDetail_Type_Description</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="9" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="N128" s="12" t="s">
-        <v>470</v>
+        <v>479</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>112</v>
@@ -9469,32 +9437,32 @@
         <v>422</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MouseCursorPositionUpdatedByGestureCursorMethodDetail_LeftHand_Description</v>
+        <f t="shared" si="6"/>
+        <v>CursorDrawingTimingMethodDetail_ByHidReportUpdatedEvent_Description</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="9" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>475</v>
+        <v>484</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>112</v>
@@ -9506,32 +9474,32 @@
         <v>422</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CursorDrawingTimingMethodDetail_Type_Description</v>
+        <f t="shared" si="6"/>
+        <v>CursorDrawingTimingMethodDetail_ByTimer60Fps_Description</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="9" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>112</v>
@@ -9543,32 +9511,32 @@
         <v>422</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CursorDrawingTimingMethodDetail_ByHidReportUpdatedEvent_Description</v>
+        <f t="shared" si="6"/>
+        <v>CursorDrawingTimingMethodDetail_ByTimer30Fps_Description</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="9" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>112</v>
@@ -9580,32 +9548,32 @@
         <v>422</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CursorDrawingTimingMethodDetail_ByTimer60Fps_Description</v>
+        <f t="shared" si="6"/>
+        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_Type_Description</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="9" t="s">
-        <v>489</v>
+        <v>676</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>112</v>
@@ -9617,32 +9585,32 @@
         <v>422</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CursorDrawingTimingMethodDetail_ByTimer30Fps_Description</v>
+        <f t="shared" si="6"/>
+        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_UseUsersControlMethods_Description</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="9" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>112</v>
@@ -9657,29 +9625,29 @@
         <v>495</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_Type_Description</v>
+        <f t="shared" si="6"/>
+        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepNormal_Description</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="9" t="s">
-        <v>676</v>
+        <v>505</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>497</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>112</v>
@@ -9694,29 +9662,29 @@
         <v>495</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_UseUsersControlMethods_Description</v>
+        <f t="shared" ref="J135:J167" si="8">$F135&amp;IF(ISBLANK($G135),"","_"&amp;$G135)&amp;IF(ISBLANK($H135),"",$H135)&amp;IF(ISBLANK($I135),"","_"&amp;$I135)</f>
+        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepMinimized_Description</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="9" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>502</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>112</v>
@@ -9728,32 +9696,32 @@
         <v>422</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepNormal_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_Type_Description</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="9" t="s">
-        <v>505</v>
+        <v>677</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>112</v>
@@ -9765,32 +9733,32 @@
         <v>422</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" ref="J137:J169" si="7">$F137&amp;IF(ISBLANK($G137),"","_"&amp;$G137)&amp;IF(ISBLANK($H137),"",$H137)&amp;IF(ISBLANK($I137),"","_"&amp;$I137)</f>
-        <v>CameraViewWindowStateHostApplicationsControlMethodDetail_KeepMinimized_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ManualOnOff_Description</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="9" t="s">
-        <v>509</v>
+        <v>678</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>510</v>
+        <v>679</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>112</v>
@@ -9805,29 +9773,29 @@
         <v>512</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_Type_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="9" t="s">
-        <v>677</v>
+        <v>518</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="N138" s="5" t="s">
-        <v>698</v>
+        <v>519</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>112</v>
@@ -9842,29 +9810,29 @@
         <v>512</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ManualOnOff_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_Description</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="9" t="s">
-        <v>678</v>
+      <c r="L139" s="10" t="s">
+        <v>680</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>679</v>
+        <v>523</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>762</v>
+        <v>699</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>112</v>
@@ -9879,29 +9847,29 @@
         <v>512</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="9" t="s">
-        <v>518</v>
+      <c r="L140" s="10" t="s">
+        <v>681</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="N140" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>686</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>112</v>
@@ -9916,29 +9884,29 @@
         <v>512</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideWhenHandTrackingEnds_Description</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>112</v>
@@ -9953,29 +9921,29 @@
         <v>512</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenFaceDetectionStarts_HideSoonAfterHandDetectionStarts_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>686</v>
+        <v>531</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>112</v>
@@ -9990,29 +9958,29 @@
         <v>512</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideWhenHandTrackingEnds_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideWhenHandTrackingEnds_Description</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>112</v>
@@ -10027,29 +9995,29 @@
         <v>512</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandDetectionStarts_HideWhenHandDetectionEnds_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="8"/>
+        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="10" t="s">
-        <v>683</v>
+        <v>537</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>531</v>
+        <v>685</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>112</v>
@@ -10058,35 +10026,35 @@
         <v>802</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>422</v>
+        <v>539</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideWhenHandTrackingEnds_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_BasicSettings_Description</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="10" t="s">
-        <v>684</v>
+      <c r="L145" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>703</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>112</v>
@@ -10095,35 +10063,35 @@
         <v>802</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>422</v>
+        <v>539</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>CameraViewWindowStateUsersControlMethodDetail_ShowWhenHandTrackingStarts_HideSoonAfterHandTrackingStarts_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_CameraViewSettings_Description</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="10" t="s">
-        <v>537</v>
+      <c r="L146" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>685</v>
+        <v>222</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>704</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>112</v>
@@ -10138,29 +10106,29 @@
         <v>540</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_BasicSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_AdvancedSettings_Description</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="9" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>112</v>
@@ -10175,29 +10143,29 @@
         <v>540</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_CameraViewSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_DeveloperSettings_Description</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="9" t="s">
-        <v>221</v>
+        <v>554</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>222</v>
+        <v>555</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>223</v>
+        <v>789</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
@@ -10212,29 +10180,29 @@
         <v>540</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_AdvancedSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_ExvisionSettings_Description</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="9" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>551</v>
+        <v>790</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>112</v>
@@ -10249,29 +10217,29 @@
         <v>540</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_DeveloperSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_TutorialAppSettings_Description</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="9" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>789</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
@@ -10286,29 +10254,29 @@
         <v>540</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_ExvisionSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_StartTutorial_Description</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>112</v>
@@ -10323,29 +10291,29 @@
         <v>540</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_TutorialAppSettings_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_OptionsForLowerSpecPc_Description</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="9" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>563</v>
+        <v>763</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>564</v>
+        <v>765</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>112</v>
@@ -10360,103 +10328,97 @@
         <v>540</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_StartTutorial_Description</v>
+        <f t="shared" si="8"/>
+        <v>SettingsUserControl_AnalogGain_Description</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="9" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>226</v>
+        <v>578</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_OptionsForLowerSpecPc_Description</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_TutorialWindowTitle</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="9" t="s">
-        <v>571</v>
+        <v>755</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>226</v>
+        <v>578</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SettingsUserControl_AnalogGain_Description</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_EndUserLicenseAgreement</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="9" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>792</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>112</v>
@@ -10471,26 +10433,26 @@
         <v>578</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>756</v>
+        <v>584</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_TutorialWindowTitle</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_PrivacyPolicy</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="9" t="s">
-        <v>755</v>
+        <v>585</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>753</v>
+        <v>586</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>754</v>
+        <v>587</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>112</v>
@@ -10505,26 +10467,26 @@
         <v>578</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_EndUserLicenseAgreement</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_IAcceptTheEula</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="9" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>112</v>
@@ -10539,26 +10501,26 @@
         <v>578</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_PrivacyPolicy</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_BySelectingNext_YouAgreeToExvisions</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="9" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>112</v>
@@ -10572,27 +10534,27 @@
       <c r="F159" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>589</v>
+      <c r="G159" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_IAcceptTheEula</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_LetsStartTutorials</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="9" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>112</v>
@@ -10606,27 +10568,27 @@
       <c r="F160" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>594</v>
+      <c r="G160" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_BySelectingNext_YouAgreeToExvisions</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_FailedToPlayAVideo</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="9" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>112</v>
@@ -10641,26 +10603,26 @@
         <v>578</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_LetsStartTutorials</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_ZkooTutorialIsStarting</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="9" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>112</v>
@@ -10675,26 +10637,26 @@
         <v>578</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_FailedToPlayAVideo</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_ZkooTutorialNeedsInternetConnections</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="9" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>607</v>
+        <v>793</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>112</v>
@@ -10708,27 +10670,27 @@
       <c r="F163" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>609</v>
+      <c r="G163" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_ZkooTutorialIsStarting</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_Replay</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="9" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>112</v>
@@ -10742,27 +10704,27 @@
       <c r="F164" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>614</v>
+      <c r="G164" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="J164" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_ZkooTutorialNeedsInternetConnections</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_Video</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="9" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>793</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>112</v>
@@ -10777,18 +10739,18 @@
         <v>578</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J165" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_Replay</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_Retry</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="9" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>620</v>
@@ -10796,7 +10758,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>112</v>
@@ -10811,26 +10773,26 @@
         <v>578</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="J166" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_Video</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_Next</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="9" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>112</v>
@@ -10844,27 +10806,27 @@
       <c r="F167" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>626</v>
+      <c r="G167" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_Retry</v>
+        <f t="shared" si="8"/>
+        <v>ZkooTutorialModel_PleaseTapCirclesInOrder</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="9" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>112</v>
@@ -10878,27 +10840,27 @@
       <c r="F168" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G168" s="3" t="s">
-        <v>629</v>
+      <c r="G168" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="J168" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_Next</v>
+        <f t="shared" ref="J168:J176" si="9">$F168&amp;IF(ISBLANK($G168),"","_"&amp;$G168)&amp;IF(ISBLANK($H168),"",$H168)&amp;IF(ISBLANK($I168),"","_"&amp;$I168)</f>
+        <v>ZkooTutorialModel_SkipVideo</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="9" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>112</v>
@@ -10913,26 +10875,26 @@
         <v>578</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="J169" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ZkooTutorialModel_PleaseTapCirclesInOrder</v>
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_Complete</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="9" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>112</v>
@@ -10947,26 +10909,26 @@
         <v>578</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f t="shared" ref="J170:J178" si="8">$F170&amp;IF(ISBLANK($G170),"","_"&amp;$G170)&amp;IF(ISBLANK($H170),"",$H170)&amp;IF(ISBLANK($I170),"","_"&amp;$I170)</f>
-        <v>ZkooTutorialModel_SkipVideo</v>
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_TryAgain</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="9" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>112</v>
@@ -10981,26 +10943,26 @@
         <v>578</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="J171" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_Complete</v>
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_WellDone</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="9" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>112</v>
@@ -11015,26 +10977,26 @@
         <v>578</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="J172" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_TryAgain</v>
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_TutorialCompletes</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="9" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="M172" s="9" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>112</v>
@@ -11049,26 +11011,25 @@
         <v>578</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J173" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_WellDone</v>
-      </c>
-      <c r="K173" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="J173" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
+      </c>
       <c r="L173" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>112</v>
@@ -11083,26 +11044,25 @@
         <v>578</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="J174" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_TutorialCompletes</v>
-      </c>
-      <c r="K174" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="J174" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
+      </c>
       <c r="L174" s="9" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="N174" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>669</v>
+      </c>
+      <c r="N174" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>112</v>
@@ -11117,25 +11077,26 @@
         <v>578</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J175" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
+      </c>
+      <c r="K175" s="2"/>
       <c r="L175" s="9" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>746</v>
+        <v>798</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>112</v>
@@ -11150,96 +11111,29 @@
         <v>578</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J176" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ZkooTutorialModel_TryAgainDetail</v>
+      </c>
+      <c r="K176" s="2"/>
       <c r="L176" s="9" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="N176" s="8" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A177" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J177" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
-      </c>
-      <c r="K177" s="2"/>
-      <c r="L177" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="M177" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="N177" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A178" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J178" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ZkooTutorialModel_TryAgainDetail</v>
-      </c>
-      <c r="K178" s="2"/>
-      <c r="L178" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="M178" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="N178" s="12" t="s">
+      <c r="N176" s="12" t="s">
         <v>796</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O139">
-    <sortCondition ref="D2:D139"/>
-    <sortCondition ref="E2:E139"/>
-    <sortCondition ref="F2:F139"/>
-    <sortCondition ref="A2:A139"/>
+  <sortState ref="A2:O137">
+    <sortCondition ref="D2:D137"/>
+    <sortCondition ref="E2:E137"/>
+    <sortCondition ref="F2:F137"/>
+    <sortCondition ref="A2:A137"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11248,14 +11142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11414,7 +11300,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11423,24 +11309,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11459,10 +11336,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -4617,10 +4617,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Max Playable Distance [m]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大検出可能距離[m]</t>
     <rPh sb="0" eb="2">
       <t>サイダイ</t>
@@ -4642,6 +4638,10 @@
   </si>
   <si>
     <t>DetectionThreshold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max Detectable Distance [m]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5109,9 +5109,9 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7820,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8996,7 +8996,7 @@
         <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>821</v>
@@ -9007,13 +9007,13 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="M117" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="M117" s="14" t="s">
-        <v>823</v>
-      </c>
       <c r="N117" s="14" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
@@ -11142,6 +11142,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11300,15 +11309,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11318,6 +11318,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11332,14 +11340,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="827">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -4490,26 +4490,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(長い距離ほど計算負荷が高くなります)</t>
+    <t>LongerDistanceNeedsMoreCpuUsage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤検出を減らす</t>
+    <rPh sb="0" eb="3">
+      <t>ゴケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未検出を減らす</t>
+    <rPh sb="0" eb="3">
+      <t>ミケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DecreaseFalseNegativeRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DecreaseFalsePositiveRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxPlayableDistanceInMeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DetectionThreshold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max Detectable Distance [m]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感度と特異度</t>
+    <rPh sb="0" eb="2">
+      <t>カンド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トクイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sensitivity and Specificity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Easy Detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Strict Detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大検出距離 [m]</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(長い距離ほどCPU負荷が高くなります)</t>
     <rPh sb="1" eb="2">
       <t>ナガ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>キョリ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="10" eb="12">
       <t>フカ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="13" eb="14">
       <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LongerDistanceNeedsMoreCpuUsage</t>
+    <t>灵敏度和特异度</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4536,63 +4616,24 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的距离需要更多的CPU使用)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誤検出を減らす</t>
-    <rPh sb="0" eb="3">
-      <t>ゴケンシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未検出を減らす</t>
-    <rPh sb="0" eb="3">
-      <t>ミケンシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DecreaseFalseNegativeRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DecreaseFalsePositiveRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>High Sensitivity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>High Specificity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Detection Threshold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検出しきい値</t>
-    <rPh sb="0" eb="2">
-      <t>ケンシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>检测阈</t>
+      <t>的距离需要使用更多的CPU)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最大可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检测</t>
     </r>
     <r>
       <rPr>
@@ -4603,45 +4644,16 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>值</t>
-    </r>
-  </si>
-  <si>
-    <t>高灵敏度</t>
-  </si>
-  <si>
-    <t>高特异性</t>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最大検出可能距離[m]</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MaxPlayableDistanceInMeter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DetectionThreshold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Max Detectable Distance [m]</t>
+      <t>距离 [米]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高特异度(注重检测精度)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高灵敏度(易检测)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4720,18 +4732,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4746,7 +4752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4785,12 +4791,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5108,10 +5108,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
+      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7820,21 +7820,21 @@
         <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CommonStrings_DetectionThreshold</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="14" t="s">
+      <c r="L84" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="M84" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="M84" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>818</v>
+      <c r="N84" s="11" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
@@ -7854,21 +7854,21 @@
         <v>113</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CommonStrings_DecreaseFalseNegativeRate</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="N85" s="15" t="s">
-        <v>819</v>
+      <c r="L85" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
@@ -7888,21 +7888,21 @@
         <v>113</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CommonStrings_DecreaseFalsePositiveRate</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>820</v>
+      <c r="L86" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
@@ -8962,21 +8962,21 @@
         <v>805</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="7"/>
         <v>EgsDeviceFaceDetectionOnHost_LongerDistanceNeedsMoreCpuUsage</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="14" t="s">
+      <c r="L116" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="M116" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="N116" s="14" t="s">
-        <v>809</v>
+      <c r="M116" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
@@ -8996,24 +8996,24 @@
         <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="7"/>
         <v>EgsDeviceFaceDetectionOnHost_MaxPlayableDistanceInMeter_Description</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="14" t="s">
-        <v>825</v>
-      </c>
-      <c r="M117" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="N117" s="14" t="s">
-        <v>825</v>
+      <c r="L117" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
@@ -11142,15 +11142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11309,7 +11300,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -11317,15 +11308,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11344,19 +11336,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -4526,14 +4526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MaxPlayableDistanceInMeter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DetectionThreshold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Max Detectable Distance [m]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4654,6 +4646,14 @@
   </si>
   <si>
     <t>高灵敏度(易检测)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SensitivityAndSpecificity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxDetectableDistanceInMeter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5108,10 +5108,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7820,21 +7820,21 @@
         <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CommonStrings_DetectionThreshold</v>
+        <v>CommonStrings_SensitivityAndSpecificity</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
@@ -7862,13 +7862,13 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>809</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
@@ -7896,13 +7896,13 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>808</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
@@ -8973,10 +8973,10 @@
         <v>806</v>
       </c>
       <c r="M116" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
@@ -8996,24 +8996,24 @@
         <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>812</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>EgsDeviceFaceDetectionOnHost_MaxPlayableDistanceInMeter_Description</v>
+        <v>EgsDeviceFaceDetectionOnHost_MaxDetectableDistanceInMeter_Description</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
@@ -11142,6 +11142,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11300,38 +11317,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11354,9 +11343,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="10575" tabRatio="555"/>
@@ -1027,51 +1027,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>PleaseConnectTheZkooCamera</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please connect the ZKOO camera.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOOカメラを接続してください。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>请连接ZKOO</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>ZkooRecognizeYourHands</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOO recognize your hands.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOOがあなたの手を認識しました</t>
-    <rPh sb="9" eb="10">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2019,124 +1975,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ZKOOとZKOOアプリケーションを使うために、OKボタンを押して、デバイスのファームウェアを更新してください。更新の途中で、ZKOOを数回再起動する必要があります。</t>
-    <rPh sb="18" eb="19">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>スウカイ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t>DoNotDisconnectTheDevice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please do not disconnect ZKOO from AC adapter and PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOOデバイスを、ACアダプタとPCから取り外さないでください。</t>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
-    <t>ZkooNeedsReboot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOO needs reboot.</t>
-  </si>
-  <si>
-    <t>ZKOOの再起動が必要です。</t>
-    <rPh sb="5" eb="8">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
-    <t>ZkooNeedsToDisconnectPowerCable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please disconnect ZKOO from AC adapter and PC and check LED is off.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOOをACアダプタとPCから取り外して、LEDが消えていることを確認してください。</t>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>95</t>
-  </si>
-  <si>
-    <t>ZkooNeedsToConnectPowerCable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please connect ZKOO with AC adapter and PC and check LED is on.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOOをACアダプタとPCに接続して、LEDが点灯していることを確認してください。</t>
-    <rPh sb="15" eb="17">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>96</t>
@@ -3578,55 +3426,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Settings menu can be opened by tapping on Camera View or right-clicking ZKOO icon on the notification area.</t>
-  </si>
-  <si>
-    <t>設定画面を開くには、カメラビューをタップするか、システムトレイ上のZKOOアイコンを右クリック、「設定」を選択してください。</t>
-    <rPh sb="0" eb="4">
-      <t>セッテイガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>161</t>
   </si>
   <si>
-    <t>StartTutorialAgainWhenZkooApplicationIsLaunched</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Start Tutorial again when ZKOO application is launched.</t>
-  </si>
-  <si>
-    <t>ZKOOアプリ起動時に、チュートリアルを開始する。</t>
-    <rPh sb="7" eb="10">
-      <t>キドウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please update device firmware to use ZKOO and ZKOO application by selecting OK.  During update, you need to reboot ZKOO a few times.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please restart the firmware update process from the beginning.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3636,38 +3438,6 @@
   </si>
   <si>
     <t>Camera View Auto On/Off Control</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Show/Hide Manually by Selecting ZKOO Icon on Task Bar or System Tray.  Hide by Selecting "Minimize" Button on the Menu.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスクバーもしくはシステムトレイ上のZKOOアイコンを選択し、手動で表示・非表示にする。メニュー上の最小化ボタンで非表示にする。</t>
-    <rPh sb="16" eb="17">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>サイショウカ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ヒヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4094,19 +3864,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>为了使用ZKOO及ZKOO应用程序，请按OK按键来更新设备固件。在更新过程中，需要重新启动多次ZKOO。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>选择描画相机视图的边框和指示标的设备</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>保持标准状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通过选择任务栏或系统托盘上的ZKOO图标来手动地切换显示与隐藏。相机视图菜单上的“最小化”将隐藏相机视图。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4126,10 +3888,6 @@
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>设置菜单可通过点击相机视图或右击在系统托盘上的ZKOO图标来打开。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4305,22 +4063,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>请不要将ZKOO从AC适配器和电脑断开。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZKOO 需要重新启动。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请将ZKOO从AC适配器和电脑断开，并检查LED灯是否已不亮。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">请将ZKOO与AC适配器和电脑连接，并检查LED灯是否已点亮。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>设备固件更新被取消。</t>
   </si>
   <si>
@@ -4421,45 +4163,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>下次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>启动ZKOO时再次显示教程。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>请将ZKOO安装在屏幕的中央附近。
 请面对相机摄像头，坐在离ZKOO大约1.5到2米以外的地方。
 如需调整相机的角度，请参照安装指南。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PleaseStartHostApplicationsAfterZkooIsConnected</t>
-  </si>
-  <si>
     <t>170</t>
-  </si>
-  <si>
-    <t>ZKOOをPCに接続してから
-アプリケーションを起動してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please connect ZKOO with PC 
-before starting ZKOO application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请将ZKOO连接到电脑，
-再启动ZKOO应用程序。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>../Windows/Projects/Egs/EgsDeviceControlCore/Properties</t>
@@ -4654,6 +4364,290 @@
   </si>
   <si>
     <t>MaxDetectableDistanceInMeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show/Hide Manually by Selecting Icon on Task Bar or System Tray.  Hide by Selecting "Minimize" Button on the Menu.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクバーもしくはシステムトレイ上のアイコンを選択し、手動で表示・非表示にする。メニュー上の最小化ボタンで非表示にする。</t>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过选择任务栏或系统托盘上的图标来手动地切换显示与隐藏。相机视图菜单上的“最小化”将隐藏相机视图。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please connect the Gesture Camera.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラを接続してください。</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请连接手势摄像头</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gesture Camera recognize your hands.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gesture Cameraがあなたの手を認識しました</t>
+    <rPh sb="19" eb="20">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PleaseConnectTheGestureCamera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PleaseStartHostApplicationAfterGestureCameraIsConnected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GestureCameraRecognizeYourHands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please update device firmware to use Gesture Camera and this application by selecting OK.  During update, you need to reboot Gesture Camera a few times.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラとアプリケーションを使うために、OKボタンを押して、デバイスのファームウェアを更新してください。更新の途中で、ジェスチャーカメラを数回再起動する必要があります。</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>スウカイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>为了使用手势摄像头及应用程序，请按OK按键来更新设备固件。在更新过程中，需要重新启动多次手势摄像头。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please do not disconnect Gesture Camera from AC adapter and PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラを、ACアダプタとPCから取り外さないでください。</t>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请不要将手势摄像头从AC适配器和电脑断开。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gesture Camera needs reboot.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラの再起動が必要です。</t>
+    <rPh sb="10" eb="13">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手势摄像头需要重新启动。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DoNotDisconnectDevice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeviceNeedsReboot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeviceNeedsToDisconnectPowerCable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeviceNeedsToConnectPowerCable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please disconnect Gesture Camera from AC adapter and PC and check LED is off.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラをACアダプタとPCから取り外して、LEDが消えていることを確認してください。</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请将手势摄像头从AC适配器和电脑断开，并检查LED灯是否已不亮。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">请将手势摄像头与AC适配器和电脑连接，并检查LED灯是否已点亮。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please connect Gesture Camera with AC adapter and PC and check LED is on.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラをACアダプタとPCに接続して、LEDが点灯していることを確認してください。</t>
+    <rPh sb="20" eb="22">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Settings menu can be opened by tapping on Camera View or right-clicking icon on the notification area.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面を開くには、カメラビューをタップするか、システムトレイ上のアイコンを右クリックし、「設定」を選択してください。</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设置菜单可通过点击相机视图或右击在系统托盘上的图标来打开。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>下次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>启动时再次显示教程。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ起動時に、チュートリアルを開始する。</t>
+    <rPh sb="3" eb="6">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start Tutorial again when this application is launched.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StartTutorialAgainWhenThisApplicationIsLaunched</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please connect Gesture Camera with PC before starting this application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラをPCに接続してからアプリケーションを起動してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请将手势摄像头连接到电脑，再启动应用程序。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5108,10 +5102,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5121,7 +5115,7 @@
     <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="2" bestFit="1" customWidth="1"/>
@@ -5182,7 +5176,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -5210,7 +5204,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -5230,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -5238,7 +5232,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -5266,7 +5260,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -5294,7 +5288,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -5322,7 +5316,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -5350,7 +5344,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -5378,7 +5372,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -5406,7 +5400,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -5434,7 +5428,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -5462,7 +5456,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -5490,7 +5484,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -5518,7 +5512,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -5546,7 +5540,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -5574,7 +5568,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -5602,7 +5596,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -5630,7 +5624,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
@@ -5658,7 +5652,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -5686,7 +5680,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -5714,7 +5708,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -5742,7 +5736,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -5770,7 +5764,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -5798,7 +5792,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -5826,7 +5820,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -5854,7 +5848,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -5882,7 +5876,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -5910,7 +5904,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -5941,7 +5935,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -5975,7 +5969,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -5998,7 +5992,7 @@
         <v>121</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
@@ -6009,7 +6003,7 @@
         <v>112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -6043,7 +6037,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -6066,7 +6060,7 @@
         <v>130</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
@@ -6077,7 +6071,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -6111,7 +6105,7 @@
         <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -6134,7 +6128,7 @@
         <v>139</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
@@ -6145,7 +6139,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -6168,7 +6162,7 @@
         <v>143</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
@@ -6179,7 +6173,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -6202,7 +6196,7 @@
         <v>147</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
@@ -6213,7 +6207,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -6236,7 +6230,7 @@
         <v>151</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
@@ -6247,7 +6241,7 @@
         <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -6281,7 +6275,7 @@
         <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -6315,7 +6309,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -6338,7 +6332,7 @@
         <v>163</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
@@ -6349,7 +6343,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -6383,7 +6377,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -6417,7 +6411,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -6451,7 +6445,7 @@
         <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -6460,32 +6454,32 @@
         <v>113</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>180</v>
+        <v>795</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CommonStrings_PleaseConnectTheZkooCamera</v>
+        <v>CommonStrings_PleaseConnectTheGestureCamera</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="9" t="s">
-        <v>181</v>
+        <v>790</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>183</v>
+        <v>791</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -6494,32 +6488,32 @@
         <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CommonStrings_PleaseStartHostApplicationsAfterZkooIsConnected</v>
+        <v>CommonStrings_PleaseStartHostApplicationAfterGestureCameraIsConnected</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="9" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -6528,32 +6522,32 @@
         <v>113</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>185</v>
+        <v>797</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CommonStrings_ZkooRecognizeYourHands</v>
+        <v>CommonStrings_GestureCameraRecognizeYourHands</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="9" t="s">
-        <v>186</v>
+        <v>793</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>187</v>
+        <v>794</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -6562,7 +6556,7 @@
         <v>113</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6570,24 +6564,24 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -6596,7 +6590,7 @@
         <v>113</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6604,24 +6598,24 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -6630,7 +6624,7 @@
         <v>113</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6638,24 +6632,24 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -6664,7 +6658,7 @@
         <v>113</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6672,24 +6666,24 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
@@ -6698,7 +6692,7 @@
         <v>113</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6706,24 +6700,24 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -6732,7 +6726,7 @@
         <v>113</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6740,24 +6734,24 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -6766,7 +6760,7 @@
         <v>113</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6774,24 +6768,24 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -6800,7 +6794,7 @@
         <v>113</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6808,24 +6802,24 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -6834,7 +6828,7 @@
         <v>113</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6842,24 +6836,24 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -6868,7 +6862,7 @@
         <v>113</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" ref="J56:J64" si="3">$F56&amp;IF(ISBLANK($G56),"","_"&amp;$G56)&amp;IF(ISBLANK($H56),"",$H56)&amp;IF(ISBLANK($I56),"","_"&amp;$I56)</f>
@@ -6876,24 +6870,24 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="9" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -6902,7 +6896,7 @@
         <v>113</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6910,24 +6904,24 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="9" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -6936,7 +6930,7 @@
         <v>113</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6944,24 +6938,24 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="9" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -6970,7 +6964,7 @@
         <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6978,24 +6972,24 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="9" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
@@ -7004,7 +6998,7 @@
         <v>113</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7012,24 +7006,24 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="9" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -7038,7 +7032,7 @@
         <v>113</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7046,24 +7040,24 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="9" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
@@ -7072,7 +7066,7 @@
         <v>113</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7080,24 +7074,24 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="9" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -7106,7 +7100,7 @@
         <v>113</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7114,24 +7108,24 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="9" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
@@ -7140,7 +7134,7 @@
         <v>113</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7148,24 +7142,24 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="9" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
@@ -7174,7 +7168,7 @@
         <v>113</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7182,24 +7176,24 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
@@ -7208,7 +7202,7 @@
         <v>113</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7216,24 +7210,24 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
@@ -7242,7 +7236,7 @@
         <v>113</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7250,24 +7244,24 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>15</v>
@@ -7276,7 +7270,7 @@
         <v>113</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" ref="J68:J73" si="4">$F68&amp;IF(ISBLANK($G68),"","_"&amp;$G68)&amp;IF(ISBLANK($H68),"",$H68)&amp;IF(ISBLANK($I68),"","_"&amp;$I68)</f>
@@ -7284,24 +7278,24 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>15</v>
@@ -7310,7 +7304,7 @@
         <v>113</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7318,24 +7312,24 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>15</v>
@@ -7344,7 +7338,7 @@
         <v>113</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7352,24 +7346,24 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>15</v>
@@ -7378,7 +7372,7 @@
         <v>113</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7386,24 +7380,24 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>15</v>
@@ -7412,7 +7406,7 @@
         <v>113</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7420,24 +7414,24 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>15</v>
@@ -7446,7 +7440,7 @@
         <v>113</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7454,24 +7448,24 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
@@ -7480,7 +7474,7 @@
         <v>113</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7488,24 +7482,24 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>15</v>
@@ -7514,7 +7508,7 @@
         <v>113</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7522,24 +7516,24 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>15</v>
@@ -7548,7 +7542,7 @@
         <v>113</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7556,24 +7550,24 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>15</v>
@@ -7582,7 +7576,7 @@
         <v>113</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7590,24 +7584,24 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
@@ -7616,7 +7610,7 @@
         <v>113</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7624,24 +7618,24 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
@@ -7650,7 +7644,7 @@
         <v>113</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7658,24 +7652,24 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
@@ -7684,7 +7678,7 @@
         <v>113</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7692,24 +7686,24 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>15</v>
@@ -7718,7 +7712,7 @@
         <v>113</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" ref="J81:J86" si="5">$F81&amp;IF(ISBLANK($G81),"","_"&amp;$G81)&amp;IF(ISBLANK($H81),"",$H81)&amp;IF(ISBLANK($I81),"","_"&amp;$I81)</f>
@@ -7726,24 +7720,24 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="9" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>15</v>
@@ -7752,7 +7746,7 @@
         <v>113</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7760,24 +7754,24 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>15</v>
@@ -7786,7 +7780,7 @@
         <v>113</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7794,24 +7788,24 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
@@ -7820,7 +7814,7 @@
         <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7828,24 +7822,24 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="9" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>15</v>
@@ -7854,7 +7848,7 @@
         <v>113</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7862,24 +7856,24 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="9" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>15</v>
@@ -7888,7 +7882,7 @@
         <v>113</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7896,36 +7890,36 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="9" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7933,36 +7927,36 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7970,36 +7964,36 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8007,36 +8001,36 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8044,36 +8038,36 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8081,36 +8075,36 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8118,36 +8112,36 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" ref="J93:J134" si="6">$F93&amp;IF(ISBLANK($G93),"","_"&amp;$G93)&amp;IF(ISBLANK($H93),"",$H93)&amp;IF(ISBLANK($I93),"","_"&amp;$I93)</f>
@@ -8155,39 +8149,39 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8195,39 +8189,39 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8235,36 +8229,36 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8272,36 +8266,36 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8309,36 +8303,36 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8346,36 +8340,36 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="10" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8383,33 +8377,33 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="10" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J100" s="1" t="str">
         <f>$F100&amp;IF(ISBLANK($G100),"","_"&amp;$G100)&amp;IF(ISBLANK($H100),"",$H100)&amp;IF(ISBLANK($I100),"","_"&amp;$I100)</f>
@@ -8417,33 +8411,33 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8451,33 +8445,33 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8485,169 +8479,169 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="9" t="s">
-        <v>674</v>
+        <v>798</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>381</v>
+        <v>799</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>383</v>
+        <v>807</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFirmwareUpdateModel_DoNotDisconnectTheDevice</v>
+        <v>EgsDeviceFirmwareUpdateModel_DoNotDisconnectDevice</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="9" t="s">
-        <v>384</v>
+        <v>801</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>385</v>
+        <v>802</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>387</v>
+        <v>808</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsReboot</v>
+        <v>EgsDeviceFirmwareUpdateModel_DeviceNeedsReboot</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="9" t="s">
-        <v>388</v>
+        <v>804</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>389</v>
+        <v>805</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>391</v>
+        <v>809</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToDisconnectPowerCable</v>
+        <v>EgsDeviceFirmwareUpdateModel_DeviceNeedsToDisconnectPowerCable</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="9" t="s">
-        <v>392</v>
+        <v>811</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>393</v>
+        <v>812</v>
       </c>
       <c r="N105" s="12" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>395</v>
+        <v>810</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>EgsDeviceFirmwareUpdateModel_ZkooNeedsToConnectPowerCable</v>
+        <v>EgsDeviceFirmwareUpdateModel_DeviceNeedsToConnectPowerCable</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="9" t="s">
-        <v>396</v>
+        <v>815</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>397</v>
+        <v>816</v>
       </c>
       <c r="N106" s="12" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8655,33 +8649,33 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="9" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8689,33 +8683,33 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="9" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="N108" s="12" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8723,33 +8717,33 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="9" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="N109" s="12" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8757,33 +8751,33 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="9" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="N110" s="12" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8791,33 +8785,33 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="9" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="N111" s="12" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8825,36 +8819,36 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="9" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N112" s="12" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" ref="J113:J117" si="7">$F113&amp;IF(ISBLANK($G113),"","_"&amp;$G113)&amp;IF(ISBLANK($H113),"",$H113)&amp;IF(ISBLANK($I113),"","_"&amp;$I113)</f>
@@ -8862,36 +8856,36 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="10" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8899,36 +8893,36 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="9" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8936,33 +8930,33 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="9" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8970,36 +8964,36 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="9" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="7"/>
@@ -9007,36 +9001,36 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="9" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9044,36 +9038,36 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="9" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9081,36 +9075,36 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="9" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9118,36 +9112,36 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="9" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N120" s="12" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9155,36 +9149,36 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="9" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="N121" s="12" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9192,36 +9186,36 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="11" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9229,36 +9223,36 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="9" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9266,36 +9260,36 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="9" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9303,36 +9297,36 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="9" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9340,36 +9334,36 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="9" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="N126" s="12" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9377,36 +9371,36 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="9" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="N127" s="12" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9414,36 +9408,36 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="9" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9451,36 +9445,36 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="9" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9488,36 +9482,36 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="9" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9525,36 +9519,36 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="9" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9562,36 +9556,36 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="9" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9599,36 +9593,36 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="9" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9636,36 +9630,36 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="9" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" ref="J135:J167" si="8">$F135&amp;IF(ISBLANK($G135),"","_"&amp;$G135)&amp;IF(ISBLANK($H135),"",$H135)&amp;IF(ISBLANK($I135),"","_"&amp;$I135)</f>
@@ -9673,36 +9667,36 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="9" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9710,36 +9704,36 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="9" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9747,36 +9741,36 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="9" t="s">
-        <v>678</v>
+        <v>787</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9784,36 +9778,36 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="9" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9821,36 +9815,36 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="10" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9858,36 +9852,36 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="10" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9895,36 +9889,36 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="10" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9932,36 +9926,36 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="10" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J143" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9969,36 +9963,36 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="10" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J144" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10006,36 +10000,36 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="10" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J145" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10043,36 +10037,36 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="9" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J146" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10080,36 +10074,36 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J147" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10117,36 +10111,36 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="9" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J148" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10154,36 +10148,36 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="9" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J149" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10191,36 +10185,36 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="9" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J150" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10228,36 +10222,36 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="9" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J151" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10265,36 +10259,36 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J152" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10302,36 +10296,36 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="9" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J153" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10339,33 +10333,33 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="9" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="J154" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10373,33 +10367,33 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="9" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="J155" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10407,33 +10401,33 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="J156" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10441,33 +10435,33 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="9" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="J157" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10475,33 +10469,33 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="9" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="J158" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10509,33 +10503,33 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="9" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="J159" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10543,33 +10537,33 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="9" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="J160" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10577,33 +10571,33 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="9" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="J161" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10611,33 +10605,33 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="9" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="J162" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10645,33 +10639,33 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="9" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="J163" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10679,33 +10673,33 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="9" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="J164" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10713,33 +10707,33 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="9" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="J165" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10747,33 +10741,33 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="9" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="J166" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10781,33 +10775,33 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="9" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="J167" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10815,33 +10809,33 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="9" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="J168" s="1" t="str">
         <f t="shared" ref="J168:J176" si="9">$F168&amp;IF(ISBLANK($G168),"","_"&amp;$G168)&amp;IF(ISBLANK($H168),"",$H168)&amp;IF(ISBLANK($I168),"","_"&amp;$I168)</f>
@@ -10849,33 +10843,33 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="9" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="J169" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10883,33 +10877,33 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="9" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="J170" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10917,33 +10911,33 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="9" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="J171" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10951,33 +10945,33 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="9" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="J172" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10985,133 +10979,133 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="9" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="M172" s="9" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="J173" s="3" t="str">
         <f t="shared" si="9"/>
         <v>ZkooTutorialModel_YouCanStartTutorialFromSettingsBasic</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="J174" s="3" t="str">
         <f t="shared" si="9"/>
         <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>668</v>
+        <v>817</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>669</v>
+        <v>818</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>764</v>
+        <v>819</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>671</v>
+        <v>823</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>ZkooTutorialModel_StartTutorialAgainWhenZkooApplicationIsLaunched</v>
+        <v>ZkooTutorialModel_StartTutorialAgainWhenThisApplicationIsLaunched</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="9" t="s">
-        <v>672</v>
+        <v>822</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>673</v>
+        <v>821</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>798</v>
+        <v>761</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="J176" s="1" t="str">
         <f t="shared" si="9"/>
@@ -11119,13 +11113,13 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="9" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -11151,14 +11145,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11317,6 +11303,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A67983-F268-477F-A830-FD85E6BE3CDF}">
   <ds:schemaRefs>
@@ -11326,23 +11320,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BEED70-4FB7-4DEC-BA25-38305F976425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11359,4 +11336,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489F90DA-672C-4213-BC00-4C8324B9F0A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/HostApplications_Resources_Strings.xlsx
+++ b/Documents/HostApplications_Resources_Strings.xlsx
@@ -4422,16 +4422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Gesture Cameraがあなたの手を認識しました</t>
-    <rPh sb="19" eb="20">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PleaseConnectTheGestureCamera</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4648,6 +4638,16 @@
   </si>
   <si>
     <t>请将手势摄像头连接到电脑，再启动应用程序。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェスチャーカメラがあなたの手を認識しました。</t>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5103,9 +5103,9 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6454,7 +6454,7 @@
         <v>113</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6488,7 +6488,7 @@
         <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6496,13 +6496,13 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="N45" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
@@ -6522,7 +6522,7 @@
         <v>113</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6533,7 +6533,7 @@
         <v>793</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>181</v>
@@ -8479,13 +8479,13 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="M102" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="M102" s="9" t="s">
+      <c r="N102" s="12" t="s">
         <v>799</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
@@ -8505,7 +8505,7 @@
         <v>364</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8513,13 +8513,13 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="M103" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="N103" s="12" t="s">
         <v>802</v>
-      </c>
-      <c r="N103" s="12" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
@@ -8539,7 +8539,7 @@
         <v>364</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="M104" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="N104" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="N104" s="12" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
@@ -8573,7 +8573,7 @@
         <v>364</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8581,13 +8581,13 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="M105" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="N105" s="12" t="s">
         <v>812</v>
-      </c>
-      <c r="N105" s="12" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
@@ -8607,7 +8607,7 @@
         <v>364</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8615,13 +8615,13 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="M106" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="M106" s="9" t="s">
-        <v>816</v>
-      </c>
       <c r="N106" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
@@ -11045,13 +11045,13 @@
         <v>ZkooTutorialModel_SettingsMenuCanBeOpenedBy</v>
       </c>
       <c r="L174" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="M174" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="M174" s="9" t="s">
+      <c r="N174" s="8" t="s">
         <v>818</v>
-      </c>
-      <c r="N174" s="8" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.4">
@@ -11071,7 +11071,7 @@
         <v>558</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="9"/>
@@ -11079,13 +11079,13 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="63" x14ac:dyDescent="0.4">
